--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -43,36 +43,36 @@
     <t>points_per_game</t>
   </si>
   <si>
+    <t>Bryan Mbeumo</t>
+  </si>
+  <si>
+    <t>Mohamed Salah</t>
+  </si>
+  <si>
+    <t>Bukayo Saka</t>
+  </si>
+  <si>
+    <t>Cole Palmer</t>
+  </si>
+  <si>
+    <t>Phil Foden</t>
+  </si>
+  <si>
+    <t>Jarrod Bowen</t>
+  </si>
+  <si>
+    <t>James Maddison</t>
+  </si>
+  <si>
+    <t>Pascal Groß</t>
+  </si>
+  <si>
+    <t>Martin Ødegaard</t>
+  </si>
+  <si>
     <t>Douglas Luiz Soares de Paulo</t>
   </si>
   <si>
-    <t>Mohamed Salah</t>
-  </si>
-  <si>
-    <t>Bukayo Saka</t>
-  </si>
-  <si>
-    <t>Cole Palmer</t>
-  </si>
-  <si>
-    <t>Phil Foden</t>
-  </si>
-  <si>
-    <t>Bryan Mbeumo</t>
-  </si>
-  <si>
-    <t>Jarrod Bowen</t>
-  </si>
-  <si>
-    <t>James Maddison</t>
-  </si>
-  <si>
-    <t>Martin Ødegaard</t>
-  </si>
-  <si>
-    <t>Pascal Groß</t>
-  </si>
-  <si>
     <t>Anthony Gordon</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Rodrigo Hernandez</t>
   </si>
   <si>
+    <t>Leon Bailey</t>
+  </si>
+  <si>
     <t>Declan Rice</t>
   </si>
   <si>
-    <t>Leon Bailey</t>
-  </si>
-  <si>
     <t>Bernardo Veiga de Carvalho e Silva</t>
   </si>
   <si>
@@ -97,39 +97,9 @@
     <t>Kai Havertz</t>
   </si>
   <si>
-    <t>Raheem Sterling</t>
-  </si>
-  <si>
     <t>James Ward-Prowse</t>
   </si>
   <si>
-    <t>Mohammed Kudus</t>
-  </si>
-  <si>
-    <t>Abdoulaye Doucouré</t>
-  </si>
-  <si>
-    <t>Bruno Borges Fernandes</t>
-  </si>
-  <si>
-    <t>Dejan Kulusevski</t>
-  </si>
-  <si>
-    <t>Luis Díaz</t>
-  </si>
-  <si>
-    <t>Pablo Sarabia</t>
-  </si>
-  <si>
-    <t>Simon Adingra</t>
-  </si>
-  <si>
-    <t>Dominik Szoboszlai</t>
-  </si>
-  <si>
-    <t>Alejandro Garnacho</t>
-  </si>
-  <si>
     <t>Son Heung-min</t>
   </si>
   <si>
@@ -163,213 +133,153 @@
     <t>André Onana</t>
   </si>
   <si>
-    <t>Chiedozie Ogbene</t>
+    <t>Lyle Foster</t>
+  </si>
+  <si>
+    <t>Dominic Solanke</t>
+  </si>
+  <si>
+    <t>Michail Antonio</t>
+  </si>
+  <si>
+    <t>Erling Haaland</t>
+  </si>
+  <si>
+    <t>Odsonne Edouard</t>
+  </si>
+  <si>
+    <t>Jean-Philippe Mateta</t>
+  </si>
+  <si>
+    <t>Gabriel Fernando de Jesus</t>
+  </si>
+  <si>
+    <t>Yoane Wissa</t>
+  </si>
+  <si>
+    <t>Ollie Watkins</t>
+  </si>
+  <si>
+    <t>Alexander Isak</t>
+  </si>
+  <si>
+    <t>Nicolas Jackson</t>
+  </si>
+  <si>
+    <t>Julián Álvarez</t>
+  </si>
+  <si>
+    <t>Rodrigo Muniz Carvalho</t>
   </si>
   <si>
     <t>Carlton Morris</t>
   </si>
   <si>
-    <t>Jay Rodriguez</t>
-  </si>
-  <si>
-    <t>Erling Haaland</t>
-  </si>
-  <si>
-    <t>Evan Ferguson</t>
-  </si>
-  <si>
-    <t>Zeki Amdouni</t>
-  </si>
-  <si>
-    <t>Dominic Calvert-Lewin</t>
-  </si>
-  <si>
-    <t>Oliver McBurnie</t>
-  </si>
-  <si>
-    <t>Ollie Watkins</t>
-  </si>
-  <si>
-    <t>Dominic Solanke</t>
-  </si>
-  <si>
-    <t>Alexander Isak</t>
-  </si>
-  <si>
-    <t>Julián Álvarez</t>
-  </si>
-  <si>
-    <t>Rodrigo Muniz Carvalho</t>
+    <t>Antoine Semenyo</t>
+  </si>
+  <si>
+    <t>Chris Wood</t>
+  </si>
+  <si>
+    <t>Rasmus Højlund</t>
+  </si>
+  <si>
+    <t>Timo Werner</t>
   </si>
   <si>
     <t>Ivan Toney</t>
   </si>
   <si>
-    <t>Chris Wood</t>
-  </si>
-  <si>
-    <t>Cody Gakpo</t>
-  </si>
-  <si>
-    <t>Rasmus Højlund</t>
-  </si>
-  <si>
-    <t>Nicolas Jackson</t>
-  </si>
-  <si>
-    <t>Antoine Semenyo</t>
-  </si>
-  <si>
-    <t>Danny Welbeck</t>
-  </si>
-  <si>
-    <t>Gabriel Fernando de Jesus</t>
-  </si>
-  <si>
-    <t>Yoane Wissa</t>
-  </si>
-  <si>
-    <t>Jean-Philippe Mateta</t>
-  </si>
-  <si>
-    <t>Odsonne Edouard</t>
-  </si>
-  <si>
-    <t>Michail Antonio</t>
-  </si>
-  <si>
-    <t>Eddie Nketiah</t>
-  </si>
-  <si>
     <t>Raúl Jiménez</t>
   </si>
   <si>
-    <t>Neal Maupay</t>
-  </si>
-  <si>
-    <t>Lyle Foster</t>
-  </si>
-  <si>
-    <t>Norberto Bercique Gomes Betuncal</t>
-  </si>
-  <si>
-    <t>Jamaal Lascelles</t>
+    <t>Pervis Estupiñán</t>
   </si>
   <si>
     <t>Benjamin White</t>
   </si>
   <si>
-    <t>James Tarkowski</t>
-  </si>
-  <si>
-    <t>Destiny Udogie</t>
-  </si>
-  <si>
-    <t>Antonee Robinson</t>
-  </si>
-  <si>
-    <t>Pau Torres</t>
-  </si>
-  <si>
-    <t>Takehiro Tomiyasu</t>
-  </si>
-  <si>
-    <t>Victor Lindelöf</t>
-  </si>
-  <si>
-    <t>Joachim Andersen</t>
-  </si>
-  <si>
-    <t>Jarrad Branthwaite</t>
+    <t>Jakub Kiwior</t>
+  </si>
+  <si>
+    <t>Tosin Adarabioyo</t>
+  </si>
+  <si>
+    <t>Rico Lewis</t>
+  </si>
+  <si>
+    <t>Kyle Walker</t>
+  </si>
+  <si>
+    <t>Diogo Dalot Teixeira</t>
   </si>
   <si>
     <t>Dan Burn</t>
   </si>
   <si>
-    <t>Diogo Dalot Teixeira</t>
-  </si>
-  <si>
-    <t>Kyle Walker</t>
-  </si>
-  <si>
-    <t>Rico Lewis</t>
-  </si>
-  <si>
-    <t>Jakub Kiwior</t>
-  </si>
-  <si>
-    <t>Tosin Adarabioyo</t>
-  </si>
-  <si>
-    <t>Pervis Estupiñán</t>
+    <t>Harry Maguire</t>
   </si>
   <si>
     <t>Manuel Akanji</t>
   </si>
   <si>
-    <t>Harry Maguire</t>
+    <t>John Stones</t>
+  </si>
+  <si>
+    <t>Nathan Aké</t>
+  </si>
+  <si>
+    <t>Vitalii Mykolenko</t>
+  </si>
+  <si>
+    <t>Pedro Porro</t>
+  </si>
+  <si>
+    <t>Virgil van Dijk</t>
+  </si>
+  <si>
+    <t>Cristian Romero</t>
+  </si>
+  <si>
+    <t>Konstantinos Tsimikas</t>
+  </si>
+  <si>
+    <t>Oleksandr Zinchenko</t>
+  </si>
+  <si>
+    <t>William Saliba</t>
   </si>
   <si>
     <t>Fabian Schär</t>
   </si>
   <si>
-    <t>Nathan Aké</t>
-  </si>
-  <si>
-    <t>John Stones</t>
-  </si>
-  <si>
-    <t>Vitalii Mykolenko</t>
-  </si>
-  <si>
-    <t>Virgil van Dijk</t>
-  </si>
-  <si>
-    <t>Pedro Porro</t>
-  </si>
-  <si>
-    <t>Cristian Romero</t>
-  </si>
-  <si>
-    <t>Konstantinos Tsimikas</t>
-  </si>
-  <si>
-    <t>Oleksandr Zinchenko</t>
-  </si>
-  <si>
-    <t>William Saliba</t>
-  </si>
-  <si>
-    <t>Timothy Castagne</t>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Spurs</t>
+  </si>
+  <si>
+    <t>Brighton</t>
   </si>
   <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Spurs</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
     <t>Newcastle</t>
   </si>
   <si>
@@ -379,25 +289,19 @@
     <t>Everton</t>
   </si>
   <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
     <t>Man Utd</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Fulham</t>
+    <t>Burnley</t>
   </si>
   <si>
     <t>Luton</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Sheffield Utd</t>
   </si>
   <si>
     <t>Nott'm Forest</t>
@@ -774,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,28 +721,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>45368</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>29</v>
       </c>
       <c r="I2">
-        <v>2328</v>
+        <v>1286</v>
       </c>
       <c r="J2">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -849,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>168</v>
@@ -858,7 +762,7 @@
         <v>45368</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>131</v>
@@ -881,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>178</v>
@@ -890,7 +794,7 @@
         <v>45368</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <v>91</v>
@@ -913,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>141</v>
@@ -922,7 +826,7 @@
         <v>45368</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G5">
         <v>57</v>
@@ -945,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>160</v>
@@ -954,7 +858,7 @@
         <v>45368</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G6">
         <v>81</v>
@@ -977,28 +881,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2">
         <v>45368</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G7">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>29</v>
       </c>
       <c r="I7">
-        <v>1286</v>
+        <v>2427</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1009,16 +913,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
         <v>45368</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <v>80</v>
@@ -1027,10 +931,10 @@
         <v>29</v>
       </c>
       <c r="I8">
-        <v>2427</v>
+        <v>1398</v>
       </c>
       <c r="J8">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1041,28 +945,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2">
         <v>45368</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9">
-        <v>1398</v>
+        <v>2122</v>
       </c>
       <c r="J9">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1073,7 +977,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>128</v>
@@ -1082,7 +986,7 @@
         <v>45368</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G10">
         <v>85</v>
@@ -1105,28 +1009,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2">
         <v>45368</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G11">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>2122</v>
+        <v>2328</v>
       </c>
       <c r="J11">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1137,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>130</v>
@@ -1146,7 +1050,7 @@
         <v>45368</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G12">
         <v>61</v>
@@ -1169,7 +1073,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <v>108</v>
@@ -1178,7 +1082,7 @@
         <v>45368</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G13">
         <v>69</v>
@@ -1201,7 +1105,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>109</v>
@@ -1210,7 +1114,7 @@
         <v>45368</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G14">
         <v>56</v>
@@ -1233,25 +1137,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D15">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2">
         <v>45368</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G15">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I15">
-        <v>2302</v>
+        <v>1397</v>
       </c>
       <c r="J15">
         <v>4.3</v>
@@ -1265,25 +1169,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2">
         <v>45368</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G16">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16">
-        <v>1397</v>
+        <v>2302</v>
       </c>
       <c r="J16">
         <v>4.3</v>
@@ -1297,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>101</v>
@@ -1306,7 +1210,7 @@
         <v>45368</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G17">
         <v>62</v>
@@ -1329,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>74</v>
@@ -1338,7 +1242,7 @@
         <v>45368</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>60</v>
@@ -1361,7 +1265,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>110</v>
@@ -1370,7 +1274,7 @@
         <v>45368</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G19">
         <v>72</v>
@@ -1393,25 +1297,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D20">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E20" s="2">
         <v>45368</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G20">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20">
-        <v>1741</v>
+        <v>2332</v>
       </c>
       <c r="J20">
         <v>4.1</v>
@@ -1425,28 +1329,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D21">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="E21" s="2">
         <v>45368</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G21">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="H21">
         <v>29</v>
       </c>
       <c r="I21">
-        <v>2332</v>
+        <v>1987</v>
       </c>
       <c r="J21">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1457,28 +1361,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D22">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F22" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F22" t="s">
-        <v>129</v>
-      </c>
       <c r="G22">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I22">
-        <v>1591</v>
+        <v>1980</v>
       </c>
       <c r="J22">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1489,25 +1393,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2">
         <v>45368</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G23">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23">
-        <v>1781</v>
+        <v>2205</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1521,28 +1425,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D24">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2">
         <v>45368</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G24">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <v>28</v>
       </c>
       <c r="I24">
-        <v>2340</v>
+        <v>2430</v>
       </c>
       <c r="J24">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1553,25 +1457,25 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D25">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2">
         <v>45368</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G25">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25">
-        <v>2119</v>
+        <v>540</v>
       </c>
       <c r="J25">
         <v>3.9</v>
@@ -1585,28 +1489,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D26">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2">
         <v>45368</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G26">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>28</v>
       </c>
       <c r="I26">
-        <v>1742</v>
+        <v>1433</v>
       </c>
       <c r="J26">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1617,16 +1521,16 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D27">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2">
         <v>45368</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G27">
         <v>47</v>
@@ -1635,10 +1539,10 @@
         <v>28</v>
       </c>
       <c r="I27">
-        <v>1178</v>
+        <v>2250</v>
       </c>
       <c r="J27">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1649,28 +1553,28 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D28">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2">
         <v>45368</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28">
-        <v>1364</v>
+        <v>2520</v>
       </c>
       <c r="J28">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1681,28 +1585,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D29">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2">
         <v>45368</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G29">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
-        <v>1673</v>
+        <v>1706</v>
       </c>
       <c r="J29">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1713,28 +1617,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="D30">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2">
         <v>45368</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G30">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H30">
         <v>28</v>
       </c>
       <c r="I30">
-        <v>1683</v>
+        <v>450</v>
       </c>
       <c r="J30">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1745,28 +1649,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D31">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2">
         <v>45368</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="G31">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31">
-        <v>1987</v>
+        <v>2430</v>
       </c>
       <c r="J31">
-        <v>6.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1777,28 +1681,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D32">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2">
         <v>45368</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I32">
-        <v>1980</v>
+        <v>1130</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1809,28 +1713,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D33">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2">
         <v>45368</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G33">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I33">
-        <v>2205</v>
+        <v>2405</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1841,28 +1745,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2">
         <v>45368</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G34">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I34">
-        <v>2430</v>
+        <v>956</v>
       </c>
       <c r="J34">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1873,28 +1777,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2">
         <v>45368</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="H35">
         <v>28</v>
       </c>
       <c r="I35">
-        <v>540</v>
+        <v>1832</v>
       </c>
       <c r="J35">
-        <v>3.9</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1905,28 +1809,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D36">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2">
         <v>45368</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G36">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H36">
         <v>28</v>
       </c>
       <c r="I36">
-        <v>1433</v>
+        <v>1415</v>
       </c>
       <c r="J36">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1937,28 +1841,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D37">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2">
         <v>45368</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G37">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H37">
         <v>28</v>
       </c>
       <c r="I37">
-        <v>2250</v>
+        <v>1417</v>
       </c>
       <c r="J37">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1969,28 +1873,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D38">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2">
         <v>45368</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G38">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I38">
-        <v>2520</v>
+        <v>1117</v>
       </c>
       <c r="J38">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2001,25 +1905,25 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2">
         <v>45368</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G39">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I39">
-        <v>1706</v>
+        <v>1817</v>
       </c>
       <c r="J39">
         <v>3.4</v>
@@ -2033,28 +1937,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="E40" s="2">
         <v>45368</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G40">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H40">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I40">
-        <v>450</v>
+        <v>2479</v>
       </c>
       <c r="J40">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2065,28 +1969,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D41">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2">
         <v>45368</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G41">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="H41">
         <v>28</v>
       </c>
       <c r="I41">
-        <v>2430</v>
+        <v>1310</v>
       </c>
       <c r="J41">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2097,28 +2001,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="D42">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2">
         <v>45368</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G42">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H42">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I42">
-        <v>1805</v>
+        <v>1725</v>
       </c>
       <c r="J42">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2129,28 +2033,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="D43">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2">
         <v>45368</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G43">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I43">
-        <v>1959</v>
+        <v>2128</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2161,28 +2065,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D44">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2">
         <v>45368</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G44">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>29</v>
       </c>
       <c r="I44">
-        <v>724</v>
+        <v>867</v>
       </c>
       <c r="J44">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2193,28 +2097,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D45">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="E45" s="2">
         <v>45368</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G45">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="H45">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I45">
-        <v>1832</v>
+        <v>1959</v>
       </c>
       <c r="J45">
-        <v>6.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2225,28 +2129,28 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D46">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2">
         <v>45368</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G46">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>28</v>
       </c>
       <c r="I46">
-        <v>1290</v>
+        <v>1329</v>
       </c>
       <c r="J46">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2257,28 +2161,28 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D47">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2">
         <v>45368</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G47">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H47">
         <v>29</v>
       </c>
       <c r="I47">
-        <v>1759</v>
+        <v>953</v>
       </c>
       <c r="J47">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2289,28 +2193,28 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D48">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2">
         <v>45368</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G48">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H48">
         <v>28</v>
       </c>
       <c r="I48">
-        <v>1549</v>
+        <v>1463</v>
       </c>
       <c r="J48">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2321,28 +2225,28 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D49">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2">
         <v>45368</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G49">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H49">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I49">
-        <v>838</v>
+        <v>418</v>
       </c>
       <c r="J49">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2353,28 +2257,28 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D50">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2">
         <v>45368</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G50">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H50">
         <v>29</v>
       </c>
       <c r="I50">
-        <v>2479</v>
+        <v>810</v>
       </c>
       <c r="J50">
-        <v>6.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2385,28 +2289,28 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D51">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="E51" s="2">
         <v>45368</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="G51">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H51">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I51">
-        <v>2405</v>
+        <v>1239</v>
       </c>
       <c r="J51">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2417,28 +2321,28 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E52" s="2">
         <v>45368</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H52">
         <v>28</v>
       </c>
       <c r="I52">
-        <v>1310</v>
+        <v>975</v>
       </c>
       <c r="J52">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2449,28 +2353,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D53">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2">
         <v>45368</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H53">
         <v>28</v>
       </c>
       <c r="I53">
-        <v>2128</v>
+        <v>2043</v>
       </c>
       <c r="J53">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2481,28 +2385,28 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D54">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E54" s="2">
         <v>45368</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G54">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I54">
-        <v>867</v>
+        <v>707</v>
       </c>
       <c r="J54">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2513,28 +2417,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2">
         <v>45368</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G55">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>29</v>
       </c>
       <c r="I55">
-        <v>810</v>
+        <v>1082</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2545,28 +2449,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D56">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E56" s="2">
         <v>45368</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G56">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I56">
-        <v>953</v>
+        <v>452</v>
       </c>
       <c r="J56">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2577,28 +2481,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D57">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2">
         <v>45368</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G57">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H57">
         <v>28</v>
       </c>
       <c r="I57">
-        <v>1136</v>
+        <v>2170</v>
       </c>
       <c r="J57">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2609,28 +2513,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D58">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2">
         <v>45368</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H58">
         <v>28</v>
       </c>
       <c r="I58">
-        <v>1463</v>
+        <v>2184</v>
       </c>
       <c r="J58">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2641,28 +2545,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D59">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2">
         <v>45368</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G59">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H59">
         <v>28</v>
       </c>
       <c r="I59">
-        <v>1725</v>
+        <v>1757</v>
       </c>
       <c r="J59">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2673,25 +2577,25 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D60">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E60" s="2">
         <v>45368</v>
       </c>
       <c r="F60" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G60">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>28</v>
       </c>
       <c r="I60">
-        <v>1329</v>
+        <v>1155</v>
       </c>
       <c r="J60">
         <v>3.5</v>
@@ -2705,28 +2609,28 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D61">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E61" s="2">
         <v>45368</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G61">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H61">
         <v>28</v>
       </c>
       <c r="I61">
-        <v>994</v>
+        <v>1587</v>
       </c>
       <c r="J61">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2737,28 +2641,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D62">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E62" s="2">
         <v>45368</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G62">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="H62">
         <v>28</v>
       </c>
       <c r="I62">
-        <v>1117</v>
+        <v>860</v>
       </c>
       <c r="J62">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2769,28 +2673,28 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D63">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2">
         <v>45368</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G63">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I63">
-        <v>1817</v>
+        <v>1635</v>
       </c>
       <c r="J63">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2801,28 +2705,28 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D64">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2">
         <v>45368</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G64">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H64">
         <v>28</v>
       </c>
       <c r="I64">
-        <v>1417</v>
+        <v>1977</v>
       </c>
       <c r="J64">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2833,28 +2737,28 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2">
         <v>45368</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G65">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H65">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65">
-        <v>1415</v>
+        <v>2157</v>
       </c>
       <c r="J65">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2865,28 +2769,28 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D66">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2">
         <v>45368</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G66">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I66">
-        <v>956</v>
+        <v>2187</v>
       </c>
       <c r="J66">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2897,28 +2801,28 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D67">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2">
         <v>45368</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G67">
         <v>51</v>
       </c>
       <c r="H67">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I67">
-        <v>1037</v>
+        <v>1800</v>
       </c>
       <c r="J67">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2929,28 +2833,28 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D68">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E68" s="2">
         <v>45368</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I68">
-        <v>1239</v>
+        <v>669</v>
       </c>
       <c r="J68">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2961,28 +2865,28 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D69">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E69" s="2">
         <v>45368</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G69">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I69">
-        <v>1188</v>
+        <v>1427</v>
       </c>
       <c r="J69">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2993,28 +2897,28 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2">
         <v>45368</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G70">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I70">
-        <v>1130</v>
+        <v>2430</v>
       </c>
       <c r="J70">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3025,988 +2929,28 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D71">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2">
         <v>45368</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G71">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H71">
         <v>28</v>
       </c>
       <c r="I71">
-        <v>671</v>
+        <v>2353</v>
       </c>
       <c r="J71">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72">
-        <v>45</v>
-      </c>
-      <c r="E72" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72">
-        <v>39</v>
-      </c>
-      <c r="H72">
-        <v>28</v>
-      </c>
-      <c r="I72">
-        <v>1061</v>
-      </c>
-      <c r="J72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73">
-        <v>119</v>
-      </c>
-      <c r="E73" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F73" t="s">
-        <v>132</v>
-      </c>
-      <c r="G73">
-        <v>57</v>
-      </c>
-      <c r="H73">
-        <v>28</v>
-      </c>
-      <c r="I73">
-        <v>2043</v>
-      </c>
-      <c r="J73">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74">
-        <v>84</v>
-      </c>
-      <c r="E74" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F74" t="s">
-        <v>132</v>
-      </c>
-      <c r="G74">
-        <v>46</v>
-      </c>
-      <c r="H74">
-        <v>28</v>
-      </c>
-      <c r="I74">
-        <v>2430</v>
-      </c>
-      <c r="J74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75">
-        <v>73</v>
-      </c>
-      <c r="E75" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F75" t="s">
-        <v>132</v>
-      </c>
-      <c r="G75">
-        <v>50</v>
-      </c>
-      <c r="H75">
-        <v>29</v>
-      </c>
-      <c r="I75">
-        <v>1941</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76">
-        <v>85</v>
-      </c>
-      <c r="E76" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G76">
-        <v>46</v>
-      </c>
-      <c r="H76">
-        <v>29</v>
-      </c>
-      <c r="I76">
-        <v>2378</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77">
-        <v>66</v>
-      </c>
-      <c r="E77" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F77" t="s">
-        <v>132</v>
-      </c>
-      <c r="G77">
-        <v>46</v>
-      </c>
-      <c r="H77">
-        <v>29</v>
-      </c>
-      <c r="I77">
-        <v>1742</v>
-      </c>
-      <c r="J77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78">
-        <v>39</v>
-      </c>
-      <c r="E78" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F78" t="s">
-        <v>132</v>
-      </c>
-      <c r="G78">
-        <v>45</v>
-      </c>
-      <c r="H78">
-        <v>28</v>
-      </c>
-      <c r="I78">
-        <v>628</v>
-      </c>
-      <c r="J78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79">
-        <v>53</v>
-      </c>
-      <c r="E79" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F79" t="s">
-        <v>132</v>
-      </c>
-      <c r="G79">
-        <v>45</v>
-      </c>
-      <c r="H79">
-        <v>28</v>
-      </c>
-      <c r="I79">
-        <v>1170</v>
-      </c>
-      <c r="J79">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80">
-        <v>85</v>
-      </c>
-      <c r="E80" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F80" t="s">
-        <v>132</v>
-      </c>
-      <c r="G80">
-        <v>47</v>
-      </c>
-      <c r="H80">
-        <v>28</v>
-      </c>
-      <c r="I80">
-        <v>2430</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81">
-        <v>78</v>
-      </c>
-      <c r="E81" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F81" t="s">
-        <v>132</v>
-      </c>
-      <c r="G81">
-        <v>42</v>
-      </c>
-      <c r="H81">
-        <v>28</v>
-      </c>
-      <c r="I81">
-        <v>2160</v>
-      </c>
-      <c r="J81">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82">
-        <v>74</v>
-      </c>
-      <c r="E82" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F82" t="s">
-        <v>132</v>
-      </c>
-      <c r="G82">
-        <v>44</v>
-      </c>
-      <c r="H82">
-        <v>28</v>
-      </c>
-      <c r="I82">
-        <v>1757</v>
-      </c>
-      <c r="J82">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83">
-        <v>83</v>
-      </c>
-      <c r="E83" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F83" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83">
-        <v>52</v>
-      </c>
-      <c r="H83">
-        <v>28</v>
-      </c>
-      <c r="I83">
-        <v>2184</v>
-      </c>
-      <c r="J83">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84">
-        <v>84</v>
-      </c>
-      <c r="E84" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F84" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84">
-        <v>54</v>
-      </c>
-      <c r="H84">
-        <v>28</v>
-      </c>
-      <c r="I84">
-        <v>2170</v>
-      </c>
-      <c r="J84">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" t="s">
-        <v>113</v>
-      </c>
-      <c r="D85">
-        <v>32</v>
-      </c>
-      <c r="E85" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F85" t="s">
-        <v>132</v>
-      </c>
-      <c r="G85">
-        <v>42</v>
-      </c>
-      <c r="H85">
-        <v>28</v>
-      </c>
-      <c r="I85">
-        <v>452</v>
-      </c>
-      <c r="J85">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
-      <c r="D86">
-        <v>53</v>
-      </c>
-      <c r="E86" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F86" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86">
-        <v>44</v>
-      </c>
-      <c r="H86">
-        <v>28</v>
-      </c>
-      <c r="I86">
-        <v>707</v>
-      </c>
-      <c r="J86">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87">
-        <v>50</v>
-      </c>
-      <c r="E87" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F87" t="s">
-        <v>132</v>
-      </c>
-      <c r="G87">
-        <v>43</v>
-      </c>
-      <c r="H87">
-        <v>29</v>
-      </c>
-      <c r="I87">
-        <v>1082</v>
-      </c>
-      <c r="J87">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88">
-        <v>54</v>
-      </c>
-      <c r="E88" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F88" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88">
-        <v>49</v>
-      </c>
-      <c r="H88">
-        <v>28</v>
-      </c>
-      <c r="I88">
-        <v>975</v>
-      </c>
-      <c r="J88">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89">
-        <v>71</v>
-      </c>
-      <c r="E89" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F89" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89">
-        <v>49</v>
-      </c>
-      <c r="H89">
-        <v>28</v>
-      </c>
-      <c r="I89">
-        <v>1587</v>
-      </c>
-      <c r="J89">
         <v>3.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90">
-        <v>56</v>
-      </c>
-      <c r="E90" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F90" t="s">
-        <v>132</v>
-      </c>
-      <c r="G90">
-        <v>42</v>
-      </c>
-      <c r="H90">
-        <v>28</v>
-      </c>
-      <c r="I90">
-        <v>1155</v>
-      </c>
-      <c r="J90">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91">
-        <v>97</v>
-      </c>
-      <c r="E91" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F91" t="s">
-        <v>132</v>
-      </c>
-      <c r="G91">
-        <v>54</v>
-      </c>
-      <c r="H91">
-        <v>28</v>
-      </c>
-      <c r="I91">
-        <v>2353</v>
-      </c>
-      <c r="J91">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92">
-        <v>82</v>
-      </c>
-      <c r="E92" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F92" t="s">
-        <v>132</v>
-      </c>
-      <c r="G92">
-        <v>51</v>
-      </c>
-      <c r="H92">
-        <v>28</v>
-      </c>
-      <c r="I92">
-        <v>1635</v>
-      </c>
-      <c r="J92">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93">
-        <v>51</v>
-      </c>
-      <c r="E93" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F93" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93">
-        <v>53</v>
-      </c>
-      <c r="H93">
-        <v>28</v>
-      </c>
-      <c r="I93">
-        <v>860</v>
-      </c>
-      <c r="J93">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94">
-        <v>85</v>
-      </c>
-      <c r="E94" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F94" t="s">
-        <v>132</v>
-      </c>
-      <c r="G94">
-        <v>46</v>
-      </c>
-      <c r="H94">
-        <v>28</v>
-      </c>
-      <c r="I94">
-        <v>1977</v>
-      </c>
-      <c r="J94">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" t="s">
-        <v>110</v>
-      </c>
-      <c r="D95">
-        <v>100</v>
-      </c>
-      <c r="E95" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F95" t="s">
-        <v>132</v>
-      </c>
-      <c r="G95">
-        <v>65</v>
-      </c>
-      <c r="H95">
-        <v>28</v>
-      </c>
-      <c r="I95">
-        <v>2187</v>
-      </c>
-      <c r="J95">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96">
-        <v>95</v>
-      </c>
-      <c r="E96" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F96" t="s">
-        <v>132</v>
-      </c>
-      <c r="G96">
-        <v>58</v>
-      </c>
-      <c r="H96">
-        <v>29</v>
-      </c>
-      <c r="I96">
-        <v>2157</v>
-      </c>
-      <c r="J96">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" t="s">
-        <v>116</v>
-      </c>
-      <c r="D97">
-        <v>87</v>
-      </c>
-      <c r="E97" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F97" t="s">
-        <v>132</v>
-      </c>
-      <c r="G97">
-        <v>51</v>
-      </c>
-      <c r="H97">
-        <v>29</v>
-      </c>
-      <c r="I97">
-        <v>1800</v>
-      </c>
-      <c r="J97">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" t="s">
-        <v>110</v>
-      </c>
-      <c r="D98">
-        <v>47</v>
-      </c>
-      <c r="E98" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F98" t="s">
-        <v>132</v>
-      </c>
-      <c r="G98">
-        <v>45</v>
-      </c>
-      <c r="H98">
-        <v>28</v>
-      </c>
-      <c r="I98">
-        <v>669</v>
-      </c>
-      <c r="J98">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99">
-        <v>86</v>
-      </c>
-      <c r="E99" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F99" t="s">
-        <v>132</v>
-      </c>
-      <c r="G99">
-        <v>50</v>
-      </c>
-      <c r="H99">
-        <v>28</v>
-      </c>
-      <c r="I99">
-        <v>1427</v>
-      </c>
-      <c r="J99">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100">
-        <v>112</v>
-      </c>
-      <c r="E100" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F100" t="s">
-        <v>132</v>
-      </c>
-      <c r="G100">
-        <v>58</v>
-      </c>
-      <c r="H100">
-        <v>28</v>
-      </c>
-      <c r="I100">
-        <v>2430</v>
-      </c>
-      <c r="J100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" t="s">
-        <v>124</v>
-      </c>
-      <c r="D101">
-        <v>77</v>
-      </c>
-      <c r="E101" s="2">
-        <v>45368</v>
-      </c>
-      <c r="F101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G101">
-        <v>45</v>
-      </c>
-      <c r="H101">
-        <v>29</v>
-      </c>
-      <c r="I101">
-        <v>1924</v>
-      </c>
-      <c r="J101">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,31 +510,31 @@
         <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="I2" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Cole Palmer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>1964</v>
+        <v>1992</v>
       </c>
       <c r="I3" t="n">
         <v>7.4</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kai Havertz</t>
+          <t>Hwang Hee-chan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>1928</v>
+        <v>1618</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rodrigo Hernandez</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>2330</v>
+        <v>1674</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
@@ -627,19 +627,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Rodrigo Hernandez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>1599</v>
+        <v>2403</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="7">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,31 +685,31 @@
         <v>63</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>2392</v>
+        <v>2482</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anthony Gordon</t>
+          <t>Ben Brereton</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>2281</v>
+        <v>496</v>
       </c>
       <c r="I8" t="n">
         <v>4.9</v>
@@ -732,19 +732,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>1333</v>
+        <v>1044</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -787,34 +787,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>2394</v>
+        <v>1418</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ben Brereton</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>406</v>
+        <v>670</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Anthony Gordon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="G12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" t="n">
-        <v>580</v>
+        <v>2371</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +884,7 @@
         <v>183</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" t="n">
         <v>2449</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>2250</v>
+        <v>2340</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="15">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,34 +962,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" t="n">
-        <v>2342</v>
+        <v>2405</v>
       </c>
       <c r="I15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cole Palmer</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,34 +997,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" t="n">
-        <v>1919</v>
+        <v>2054</v>
       </c>
       <c r="I16" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Norberto Murara Neto</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,34 +1032,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" t="n">
-        <v>2520</v>
+        <v>2250</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1067,34 +1067,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" t="n">
-        <v>2160</v>
+        <v>1890</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Norberto Murara Neto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" t="n">
-        <v>2700</v>
+        <v>2610</v>
       </c>
       <c r="I19" t="n">
         <v>3.6</v>
@@ -1117,19 +1117,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Caoimhin Kelleher</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" t="n">
-        <v>810</v>
+        <v>2790</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Emiliano Martínez Romero</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" t="n">
         <v>2700</v>
@@ -1187,19 +1187,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>David Datro Fofana</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" t="n">
-        <v>1207</v>
+        <v>745</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="23">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" t="n">
-        <v>2614</v>
+        <v>2704</v>
       </c>
       <c r="I23" t="n">
         <v>6.5</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" t="n">
-        <v>1580</v>
+        <v>1670</v>
       </c>
       <c r="I24" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,34 +1312,34 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>2668</v>
+        <v>2758</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Julián Álvarez</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" t="n">
-        <v>2286</v>
+        <v>2011</v>
       </c>
       <c r="I26" t="n">
         <v>4.5</v>
@@ -1362,19 +1362,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>David Datro Fofana</t>
+          <t>Julián Álvarez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G27" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" t="n">
-        <v>685</v>
+        <v>2359</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,34 +1417,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G28" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28" t="n">
-        <v>1735</v>
+        <v>1274</v>
       </c>
       <c r="I28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G29" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" t="n">
-        <v>1976</v>
+        <v>1802</v>
       </c>
       <c r="I29" t="n">
         <v>4.2</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30" t="n">
-        <v>2229</v>
+        <v>2319</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="31">
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,34 +1522,34 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31" t="n">
-        <v>1110</v>
+        <v>1195</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Timo Werner</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,34 +1557,34 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32" t="n">
-        <v>613</v>
+        <v>2085</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ivan Toney</t>
+          <t>Timo Werner</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,34 +1592,34 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33" t="n">
-        <v>1080</v>
+        <v>688</v>
       </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Ivan Toney</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" t="n">
-        <v>1618</v>
+        <v>1089</v>
       </c>
       <c r="I34" t="n">
         <v>3.7</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,31 +1665,31 @@
         <v>143</v>
       </c>
       <c r="G35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" t="n">
-        <v>2012</v>
+        <v>2102</v>
       </c>
       <c r="I35" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,34 +1697,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>1677</v>
+        <v>1708</v>
       </c>
       <c r="I36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>John Stones</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G37" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="I37" t="n">
         <v>3.5</v>
@@ -1747,7 +1747,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Conor Bradley</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1767,16 +1767,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="G38" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>621</v>
+        <v>1622</v>
       </c>
       <c r="I38" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="39">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>2313</v>
+        <v>2403</v>
       </c>
       <c r="I39" t="n">
         <v>4.5</v>
@@ -1817,7 +1817,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gabriel dos Santos Magalhães</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,22 +1837,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G40" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>2354</v>
+        <v>2790</v>
       </c>
       <c r="I40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Oleksandr Zinchenko</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" t="n">
-        <v>2700</v>
+        <v>1582</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oleksandr Zinchenko</t>
+          <t>Gabriel dos Santos Magalhães</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1907,34 +1907,34 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G42" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>1511</v>
+        <v>2444</v>
       </c>
       <c r="I42" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Konstantinos Tsimikas</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G43" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>2427</v>
+        <v>669</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1957,19 +1957,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Konstantinos Tsimikas</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,16 +1977,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G44" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44" t="n">
-        <v>669</v>
+        <v>2713</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="45">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,13 +2015,13 @@
         <v>46</v>
       </c>
       <c r="G45" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45" t="n">
-        <v>2154</v>
+        <v>2244</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="46">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,31 +2050,31 @@
         <v>42</v>
       </c>
       <c r="G46" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46" t="n">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="I46" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>John Stones</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,34 +2082,34 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>2457</v>
+        <v>1040</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48" t="n">
-        <v>1857</v>
+        <v>2547</v>
       </c>
       <c r="I48" t="n">
         <v>3.5</v>
@@ -2132,19 +2132,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Nathan Aké</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H49" t="n">
-        <v>2070</v>
+        <v>1751</v>
       </c>
       <c r="I49" t="n">
         <v>3.5</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,34 +2187,34 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G50" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50" t="n">
-        <v>850</v>
+        <v>2160</v>
       </c>
       <c r="I50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Tosin Adarabioyo</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45389</v>
+        <v>45397</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51" t="n">
-        <v>2623</v>
+        <v>1436</v>
       </c>
       <c r="I51" t="n">
         <v>3.5</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,13 +510,13 @@
         <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>770</v>
+        <v>904</v>
       </c>
       <c r="I2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         <v>207</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>1992</v>
+        <v>2071</v>
       </c>
       <c r="I3" t="n">
         <v>7.4</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Pascal Groß</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>1618</v>
+        <v>2572</v>
       </c>
       <c r="I4" t="n">
         <v>4.6</v>
@@ -604,7 +604,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
         <v>2403</v>
@@ -662,19 +662,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pascal Groß</t>
+          <t>Ben Brereton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>2482</v>
+        <v>676</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ben Brereton</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="G8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>496</v>
+        <v>2790</v>
       </c>
       <c r="I8" t="n">
         <v>4.9</v>
@@ -732,19 +732,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Anthony Gordon</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>1044</v>
+        <v>2461</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,31 +790,31 @@
         <v>68</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>1418</v>
+        <v>1507</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>670</v>
+        <v>2650</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anthony Gordon</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,34 +857,34 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="n">
-        <v>2371</v>
+        <v>750</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Bukayo Saka</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" t="n">
-        <v>2449</v>
+        <v>2585</v>
       </c>
       <c r="I13" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="14">
@@ -919,7 +919,7 @@
         <v>186</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -942,19 +942,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bukayo Saka</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" t="n">
-        <v>2405</v>
+        <v>2449</v>
       </c>
       <c r="I15" t="n">
         <v>6.4</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,34 +997,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" t="n">
-        <v>2054</v>
+        <v>2160</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" t="n">
-        <v>2250</v>
+        <v>2070</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1047,19 +1047,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1067,34 +1067,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" t="n">
-        <v>1890</v>
+        <v>2430</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Norberto Murara Neto</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,31 +1105,31 @@
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19" t="n">
-        <v>2610</v>
+        <v>2970</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>André Onana</t>
+          <t>Arijanet Muric</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" t="n">
-        <v>2790</v>
+        <v>450</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Emiliano Martínez Romero</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,34 +1172,34 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H21" t="n">
-        <v>2700</v>
+        <v>2340</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>David Datro Fofana</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" t="n">
-        <v>745</v>
+        <v>1906</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1242,34 +1242,34 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23" t="n">
-        <v>2704</v>
+        <v>1760</v>
       </c>
       <c r="I23" t="n">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Dominic Solanke</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,34 +1277,34 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24" t="n">
-        <v>1670</v>
+        <v>2938</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dominic Solanke</t>
+          <t>Julián Álvarez</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,16 +1312,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>2758</v>
+        <v>2449</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26">
@@ -1339,7 +1339,7 @@
         <v>121</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,31 +1350,31 @@
         <v>56</v>
       </c>
       <c r="G26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" t="n">
-        <v>2011</v>
+        <v>2086</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Julián Álvarez</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" t="n">
-        <v>2359</v>
+        <v>1364</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,34 +1417,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" t="n">
-        <v>1274</v>
+        <v>1883</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>David Datro Fofana</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" t="n">
-        <v>1802</v>
+        <v>806</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="30">
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30" t="n">
-        <v>2319</v>
+        <v>2409</v>
       </c>
       <c r="I30" t="n">
         <v>3.9</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31" t="n">
-        <v>1195</v>
+        <v>1285</v>
       </c>
       <c r="I31" t="n">
         <v>3.9</v>
@@ -1537,19 +1537,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Timo Werner</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G32" t="n">
         <v>33</v>
       </c>
       <c r="H32" t="n">
-        <v>2085</v>
+        <v>688</v>
       </c>
       <c r="I32" t="n">
         <v>3.8</v>
@@ -1572,19 +1572,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Timo Werner</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G33" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33" t="n">
-        <v>688</v>
+        <v>2172</v>
       </c>
       <c r="I33" t="n">
         <v>3.8</v>
@@ -1607,19 +1607,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ivan Toney</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G34" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34" t="n">
-        <v>1089</v>
+        <v>1798</v>
       </c>
       <c r="I34" t="n">
         <v>3.7</v>
@@ -1642,19 +1642,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Erling Haaland</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,34 +1662,34 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="G35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>2102</v>
+        <v>2794</v>
       </c>
       <c r="I35" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>1708</v>
+        <v>2206</v>
       </c>
       <c r="I36" t="n">
         <v>3.6</v>
@@ -1712,19 +1712,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,34 +1732,34 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37" t="n">
-        <v>850</v>
+        <v>785</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Benjamin White</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1767,34 +1767,34 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G38" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38" t="n">
-        <v>1622</v>
+        <v>2559</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Benjamin White</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,16 +1802,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39" t="n">
-        <v>2403</v>
+        <v>1743</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="40">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,19 +1840,19 @@
         <v>59</v>
       </c>
       <c r="G40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40" t="n">
-        <v>2790</v>
+        <v>2970</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Oleksandr Zinchenko</t>
+          <t>Gabriel dos Santos Magalhães</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G41" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41" t="n">
-        <v>1582</v>
+        <v>2624</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Gabriel dos Santos Magalhães</t>
+          <t>Oleksandr Zinchenko</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H42" t="n">
-        <v>2444</v>
+        <v>1668</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
@@ -1922,19 +1922,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Konstantinos Tsimikas</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,16 +1942,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G43" t="n">
         <v>33</v>
       </c>
       <c r="H43" t="n">
-        <v>669</v>
+        <v>2517</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="44">
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,34 +1977,34 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G44" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44" t="n">
-        <v>2713</v>
+        <v>2803</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Vitalii Mykolenko</t>
+          <t>Konstantinos Tsimikas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,22 +2012,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G45" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45" t="n">
-        <v>2244</v>
+        <v>669</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Nathan Aké</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,24 +2036,24 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>89</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>50</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>42</v>
-      </c>
       <c r="G46" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46" t="n">
-        <v>695</v>
+        <v>1751</v>
       </c>
       <c r="I46" t="n">
         <v>3.6</v>
@@ -2062,7 +2062,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>John Stones</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,31 +2085,31 @@
         <v>53</v>
       </c>
       <c r="G47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47" t="n">
-        <v>1040</v>
+        <v>2260</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,22 +2117,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H48" t="n">
-        <v>2547</v>
+        <v>940</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nathan Aké</t>
+          <t>John Stones</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G49" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49" t="n">
-        <v>1751</v>
+        <v>1040</v>
       </c>
       <c r="I49" t="n">
         <v>3.5</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50" t="n">
-        <v>2160</v>
+        <v>2666</v>
       </c>
       <c r="I50" t="n">
         <v>3.4</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tosin Adarabioyo</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G51" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H51" t="n">
-        <v>1436</v>
+        <v>1992</v>
       </c>
       <c r="I51" t="n">
         <v>3.5</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -557,16 +557,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pascal Groß</t>
+          <t>Douglas Luiz Soares de Paulo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>45407</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
         <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>2572</v>
+        <v>2661</v>
       </c>
       <c r="I4" t="n">
         <v>4.6</v>
@@ -592,16 +592,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Pascal Groß</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>45407</v>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>1674</v>
+        <v>2572</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
@@ -627,16 +627,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rodrigo Hernandez</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>45407</v>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>2403</v>
+        <v>1674</v>
       </c>
       <c r="I6" t="n">
         <v>4.6</v>
@@ -662,16 +662,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ben Brereton</t>
+          <t>Rodrigo Hernandez</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>45407</v>
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
         <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>676</v>
+        <v>2403</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
@@ -1082,16 +1082,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>45407</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
         <v>34</v>
       </c>
       <c r="H19" t="n">
-        <v>2970</v>
+        <v>2340</v>
       </c>
       <c r="I19" t="n">
         <v>3.9</v>
@@ -1117,16 +1117,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Arijanet Muric</t>
+          <t>Emiliano Martínez Romero</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>45407</v>
@@ -1137,31 +1137,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G20" t="n">
         <v>34</v>
       </c>
       <c r="H20" t="n">
-        <v>450</v>
+        <v>2790</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>45407</v>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G21" t="n">
         <v>34</v>
       </c>
       <c r="H21" t="n">
-        <v>2340</v>
+        <v>2970</v>
       </c>
       <c r="I21" t="n">
         <v>3.9</v>
@@ -1467,16 +1467,16 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carlton Morris</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>45407</v>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G30" t="n">
         <v>34</v>
       </c>
       <c r="H30" t="n">
-        <v>2409</v>
+        <v>1285</v>
       </c>
       <c r="I30" t="n">
         <v>3.9</v>
@@ -1502,16 +1502,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Carlton Morris</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>45407</v>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G31" t="n">
         <v>34</v>
       </c>
       <c r="H31" t="n">
-        <v>1285</v>
+        <v>2409</v>
       </c>
       <c r="I31" t="n">
         <v>3.9</v>
@@ -1537,16 +1537,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Timo Werner</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>45407</v>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G32" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32" t="n">
-        <v>688</v>
+        <v>2172</v>
       </c>
       <c r="I32" t="n">
         <v>3.8</v>
@@ -1572,16 +1572,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>45407</v>
@@ -1592,31 +1592,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G33" t="n">
         <v>34</v>
       </c>
       <c r="H33" t="n">
-        <v>2172</v>
+        <v>1798</v>
       </c>
       <c r="I33" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>45407</v>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G34" t="n">
         <v>34</v>
       </c>
       <c r="H34" t="n">
-        <v>1798</v>
+        <v>2206</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="35">
@@ -1677,16 +1677,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>Antoine Semenyo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>45407</v>
@@ -1697,48 +1697,48 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G36" t="n">
         <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>2206</v>
+        <v>1649</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C37" t="n">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>51</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>45407</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>42</v>
-      </c>
       <c r="G37" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>785</v>
+        <v>2160</v>
       </c>
       <c r="I37" t="n">
         <v>3.4</v>
@@ -1992,16 +1992,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Konstantinos Tsimikas</t>
+          <t>Nathan Aké</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>45407</v>
@@ -2012,22 +2012,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G45" t="n">
         <v>34</v>
       </c>
       <c r="H45" t="n">
-        <v>669</v>
+        <v>1751</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nathan Aké</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>45407</v>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G46" t="n">
         <v>34</v>
       </c>
       <c r="H46" t="n">
-        <v>1751</v>
+        <v>2260</v>
       </c>
       <c r="I46" t="n">
         <v>3.6</v>
@@ -2062,16 +2062,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>45407</v>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G47" t="n">
         <v>34</v>
       </c>
       <c r="H47" t="n">
-        <v>2260</v>
+        <v>940</v>
       </c>
       <c r="I47" t="n">
         <v>3.6</v>
@@ -2097,16 +2097,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>John Stones</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>45407</v>
@@ -2117,22 +2117,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G48" t="n">
         <v>34</v>
       </c>
       <c r="H48" t="n">
-        <v>940</v>
+        <v>1040</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>John Stones</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>45407</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
         <v>34</v>
       </c>
       <c r="H49" t="n">
-        <v>1040</v>
+        <v>1992</v>
       </c>
       <c r="I49" t="n">
         <v>3.5</v>
@@ -2167,16 +2167,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>45407</v>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G50" t="n">
         <v>34</v>
       </c>
       <c r="H50" t="n">
-        <v>2666</v>
+        <v>2727</v>
       </c>
       <c r="I50" t="n">
         <v>3.4</v>
@@ -2202,7 +2202,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>45407</v>
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G51" t="n">
         <v>34</v>
       </c>
       <c r="H51" t="n">
-        <v>1992</v>
+        <v>785</v>
       </c>
       <c r="I51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Michael Olise</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>904</v>
+        <v>821</v>
       </c>
       <c r="I2" t="n">
         <v>5.9</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
         <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>2071</v>
+        <v>2161</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,31 +580,31 @@
         <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
         <v>2661</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pascal Groß</t>
+          <t>Ben Brereton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,34 +612,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>2572</v>
+        <v>766</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Rodrigo Hernandez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,34 +647,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1674</v>
+        <v>2481</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rodrigo Hernandez</t>
+          <t>Kai Havertz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>2403</v>
+        <v>2267</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>2790</v>
+        <v>1597</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>2461</v>
+        <v>2551</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -787,34 +787,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>1507</v>
+        <v>2740</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>2650</v>
+        <v>2750</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Michael Olise</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,34 +857,34 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="G12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="n">
-        <v>750</v>
+        <v>921</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bukayo Saka</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" t="n">
-        <v>2585</v>
+        <v>2487</v>
       </c>
       <c r="I13" t="n">
         <v>6.3</v>
@@ -907,19 +907,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>2340</v>
+        <v>2520</v>
       </c>
       <c r="I14" t="n">
         <v>6.4</v>
@@ -942,19 +942,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Bukayo Saka</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" t="n">
-        <v>2449</v>
+        <v>2666</v>
       </c>
       <c r="I15" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,34 +997,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H16" t="n">
-        <v>2160</v>
+        <v>2250</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H17" t="n">
-        <v>2070</v>
+        <v>3060</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
         <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" t="n">
-        <v>2430</v>
+        <v>2520</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19">
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,31 +1105,31 @@
         <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" t="n">
         <v>2340</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Emiliano Martínez Romero</t>
+          <t>André Onana</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20" t="n">
-        <v>2790</v>
+        <v>2970</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>2970</v>
+        <v>2160</v>
       </c>
       <c r="I21" t="n">
         <v>3.9</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" t="n">
-        <v>1906</v>
+        <v>1996</v>
       </c>
       <c r="I22" t="n">
         <v>4.1</v>
@@ -1222,19 +1222,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alexander Isak</t>
+          <t>Ollie Watkins</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1242,34 +1242,34 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>1760</v>
+        <v>2884</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dominic Solanke</t>
+          <t>Alexander Isak</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,34 +1277,34 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G24" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H24" t="n">
-        <v>2938</v>
+        <v>1850</v>
       </c>
       <c r="I24" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Julián Álvarez</t>
+          <t>Dominic Solanke</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,34 +1312,34 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>2449</v>
+        <v>3024</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Julián Álvarez</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,34 +1347,34 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G26" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26" t="n">
-        <v>2086</v>
+        <v>2539</v>
       </c>
       <c r="I26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" t="n">
-        <v>1364</v>
+        <v>2121</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,34 +1417,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28" t="n">
-        <v>1883</v>
+        <v>1454</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>David Datro Fofana</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1452,34 +1452,34 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29" t="n">
-        <v>806</v>
+        <v>1375</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G30" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30" t="n">
-        <v>1285</v>
+        <v>1973</v>
       </c>
       <c r="I30" t="n">
         <v>3.9</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>48</v>
       </c>
       <c r="G31" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" t="n">
-        <v>2409</v>
+        <v>2499</v>
       </c>
       <c r="I31" t="n">
         <v>3.9</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>69</v>
       </c>
       <c r="G32" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" t="n">
-        <v>2172</v>
+        <v>2352</v>
       </c>
       <c r="I32" t="n">
         <v>3.8</v>
@@ -1572,19 +1572,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>David Datro Fofana</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33" t="n">
-        <v>1798</v>
+        <v>812</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
@@ -1607,19 +1607,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,34 +1627,34 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34" t="n">
-        <v>2206</v>
+        <v>1888</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
+          <t>Erling Haaland</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="G35" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" t="n">
-        <v>2794</v>
+        <v>2182</v>
       </c>
       <c r="I35" t="n">
         <v>6.6</v>
@@ -1677,19 +1677,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Antoine Semenyo</t>
+          <t>Ivan Toney</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,34 +1697,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36" t="n">
-        <v>1649</v>
+        <v>1089</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H37" t="n">
-        <v>2160</v>
+        <v>940</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1767,16 +1767,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G38" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38" t="n">
-        <v>2559</v>
+        <v>2649</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="39">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         <v>84</v>
       </c>
       <c r="G39" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39" t="n">
-        <v>1743</v>
+        <v>1826</v>
       </c>
       <c r="I39" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="40">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,13 +1840,13 @@
         <v>59</v>
       </c>
       <c r="G40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40" t="n">
-        <v>2970</v>
+        <v>3060</v>
       </c>
       <c r="I40" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="41">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,13 +1875,13 @@
         <v>54</v>
       </c>
       <c r="G41" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H41" t="n">
-        <v>2624</v>
+        <v>2714</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="42">
@@ -1899,7 +1899,7 @@
         <v>103</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42" t="n">
-        <v>1668</v>
+        <v>1686</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
@@ -1922,19 +1922,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G43" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H43" t="n">
-        <v>2517</v>
+        <v>2338</v>
       </c>
       <c r="I43" t="n">
         <v>3.8</v>
@@ -1957,19 +1957,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Nathan Aké</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44" t="n">
-        <v>2803</v>
+        <v>1841</v>
       </c>
       <c r="I44" t="n">
         <v>3.7</v>
@@ -1992,7 +1992,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nathan Aké</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="G45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45" t="n">
-        <v>1751</v>
+        <v>2082</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,34 +2047,34 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H46" t="n">
-        <v>2260</v>
+        <v>1877</v>
       </c>
       <c r="I46" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G47" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H47" t="n">
-        <v>940</v>
+        <v>2655</v>
       </c>
       <c r="I47" t="n">
         <v>3.6</v>
@@ -2109,7 +2109,7 @@
         <v>52</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>53</v>
       </c>
       <c r="G48" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H48" t="n">
         <v>1040</v>
@@ -2132,19 +2132,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G49" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49" t="n">
-        <v>1992</v>
+        <v>1897</v>
       </c>
       <c r="I49" t="n">
         <v>3.5</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G50" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H50" t="n">
-        <v>2727</v>
+        <v>2340</v>
       </c>
       <c r="I50" t="n">
         <v>3.4</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45407</v>
+        <v>45414</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G51" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51" t="n">
-        <v>785</v>
+        <v>2756</v>
       </c>
       <c r="I51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Michael Olise</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>1011</v>
+        <v>2930</v>
       </c>
       <c r="I2" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>2251</v>
+        <v>2429</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>Hwang Hee-chan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,34 +577,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>2955</v>
+        <v>1965</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rodrigo Hernandez</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,34 +612,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>2571</v>
+        <v>1880</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kai Havertz</t>
+          <t>Pedro Lomba Neto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>2357</v>
+        <v>1504</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,31 +685,31 @@
         <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>856</v>
+        <v>946</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Rodrigo Hernandez</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>1687</v>
+        <v>2751</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Kai Havertz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>2828</v>
+        <v>2447</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Anthony Gordon</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -787,34 +787,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>2632</v>
+        <v>2970</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>2840</v>
+        <v>2918</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
-        <v>909</v>
+        <v>1777</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
-        <v>2577</v>
+        <v>2757</v>
       </c>
       <c r="I13" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="14">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,34 +927,34 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bukayo Saka</t>
+          <t>Michael Olise</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="n">
-        <v>2756</v>
+        <v>1095</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,31 +1000,31 @@
         <v>134</v>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" t="n">
-        <v>2261</v>
+        <v>2351</v>
       </c>
       <c r="I16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,16 +1032,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" t="n">
-        <v>1255</v>
+        <v>3240</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="18">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" t="n">
-        <v>2610</v>
+        <v>2700</v>
       </c>
       <c r="I18" t="n">
         <v>4.3</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
         <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" t="n">
-        <v>2430</v>
+        <v>2520</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="20">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,31 +1140,31 @@
         <v>57</v>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H20" t="n">
-        <v>2250</v>
+        <v>2340</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>3150</v>
+        <v>1255</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1187,19 +1187,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>133</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G22" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22" t="n">
-        <v>2442</v>
+        <v>2271</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="23">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>89</v>
       </c>
       <c r="G23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" t="n">
-        <v>2974</v>
+        <v>3064</v>
       </c>
       <c r="I23" t="n">
         <v>6.3</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,13 +1280,13 @@
         <v>84</v>
       </c>
       <c r="G24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24" t="n">
-        <v>1940</v>
+        <v>2083</v>
       </c>
       <c r="I24" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="25">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
-        <v>3114</v>
+        <v>3204</v>
       </c>
       <c r="I25" t="n">
         <v>4.7</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,31 +1350,31 @@
         <v>64</v>
       </c>
       <c r="G26" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26" t="n">
-        <v>2627</v>
+        <v>2643</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27" t="n">
-        <v>2196</v>
+        <v>2131</v>
       </c>
       <c r="I27" t="n">
         <v>4.3</v>
@@ -1397,19 +1397,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G28" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" t="n">
-        <v>2064</v>
+        <v>2622</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29" t="n">
-        <v>1544</v>
+        <v>1633</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="30">
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,13 +1490,13 @@
         <v>47</v>
       </c>
       <c r="G30" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30" t="n">
-        <v>2589</v>
+        <v>2679</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31">
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,16 +1522,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" t="n">
-        <v>1459</v>
+        <v>1522</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,31 +1560,31 @@
         <v>75</v>
       </c>
       <c r="G32" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H32" t="n">
-        <v>1984</v>
+        <v>1999</v>
       </c>
       <c r="I32" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Taiwo Awoniyi</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,34 +1592,34 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H33" t="n">
-        <v>1020</v>
+        <v>2378</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Callum Wilson</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G34" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34" t="n">
-        <v>904</v>
+        <v>2118</v>
       </c>
       <c r="I34" t="n">
         <v>3.6</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,34 +1662,34 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G35" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35" t="n">
-        <v>2210</v>
+        <v>2373</v>
       </c>
       <c r="I35" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Taiwo Awoniyi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,34 +1697,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G36" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H36" t="n">
-        <v>1952</v>
+        <v>1021</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thiago Emiliano da Silva</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37" t="n">
-        <v>2263</v>
+        <v>941</v>
       </c>
       <c r="I37" t="n">
         <v>3.4</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>61</v>
       </c>
       <c r="G38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>2739</v>
+        <v>2829</v>
       </c>
       <c r="I38" t="n">
         <v>5</v>
@@ -1782,19 +1782,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,16 +1802,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H39" t="n">
-        <v>1903</v>
+        <v>2147</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="40">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,31 +1840,31 @@
         <v>59</v>
       </c>
       <c r="G40" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40" t="n">
-        <v>3150</v>
+        <v>3240</v>
       </c>
       <c r="I40" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gabriel dos Santos Magalhães</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G41" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41" t="n">
-        <v>2804</v>
+        <v>1993</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oleksandr Zinchenko</t>
+          <t>Gabriel dos Santos Magalhães</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1907,34 +1907,34 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G42" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42" t="n">
-        <v>1686</v>
+        <v>2894</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,34 +1942,34 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G43" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43" t="n">
-        <v>1967</v>
+        <v>2164</v>
       </c>
       <c r="I43" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Oleksandr Zinchenko</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,22 +1977,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H44" t="n">
-        <v>2428</v>
+        <v>1686</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,22 +2012,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G45" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H45" t="n">
-        <v>2172</v>
+        <v>2586</v>
       </c>
       <c r="I45" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nathan Aké</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,31 +2050,31 @@
         <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46" t="n">
-        <v>1931</v>
+        <v>2352</v>
       </c>
       <c r="I46" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G47" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47" t="n">
-        <v>941</v>
+        <v>2925</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="48">
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,31 +2120,31 @@
         <v>45</v>
       </c>
       <c r="G48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H48" t="n">
-        <v>2846</v>
+        <v>2936</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Nathan Aké</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49" t="n">
-        <v>2745</v>
+        <v>2020</v>
       </c>
       <c r="I49" t="n">
         <v>3.5</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G50" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H50" t="n">
-        <v>796</v>
+        <v>2066</v>
       </c>
       <c r="I50" t="n">
         <v>3.4</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G51" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51" t="n">
-        <v>1987</v>
+        <v>2938</v>
       </c>
       <c r="I51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -499,7 +499,7 @@
         <v>182</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>76</v>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>2930</v>
+        <v>3020</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>63</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>2429</v>
+        <v>2519</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Ben Brereton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>1965</v>
+        <v>1036</v>
       </c>
       <c r="I4" t="n">
         <v>4.4</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Rodrigo Hernandez</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,69 +612,69 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>1880</v>
+        <v>2841</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedro Lomba Neto</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>166</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>85</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>45427</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>55</v>
-      </c>
       <c r="G6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>1504</v>
+        <v>3059</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ben Brereton</t>
+          <t>Kai Havertz</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>946</v>
+        <v>2537</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rodrigo Hernandez</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,34 +717,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>2751</v>
+        <v>1967</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kai Havertz</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>2447</v>
+        <v>1867</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>2970</v>
+        <v>1141</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,31 +825,31 @@
         <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>2918</v>
+        <v>3008</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="G12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>1777</v>
+        <v>1129</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" t="n">
-        <v>2757</v>
+        <v>2847</v>
       </c>
       <c r="I13" t="n">
         <v>6.1</v>
@@ -907,19 +907,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Michael Olise</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,34 +927,34 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>2680</v>
+        <v>1182</v>
       </c>
       <c r="I14" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Michael Olise</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="G15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" t="n">
-        <v>1095</v>
+        <v>2770</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>134</v>
       </c>
       <c r="G16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" t="n">
-        <v>2351</v>
+        <v>2441</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1012,19 +1012,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,34 +1032,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" t="n">
-        <v>3240</v>
+        <v>2790</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Arijanet Muric</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1067,34 +1067,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" t="n">
-        <v>2700</v>
+        <v>810</v>
       </c>
       <c r="I18" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,16 +1102,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" t="n">
-        <v>2520</v>
+        <v>1255</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="20">
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,31 +1140,31 @@
         <v>57</v>
       </c>
       <c r="G20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>2340</v>
+        <v>2430</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" t="n">
-        <v>1255</v>
+        <v>3330</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,13 +1210,13 @@
         <v>55</v>
       </c>
       <c r="G22" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>2271</v>
+        <v>2361</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="23">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,13 +1245,13 @@
         <v>89</v>
       </c>
       <c r="G23" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23" t="n">
-        <v>3064</v>
+        <v>3154</v>
       </c>
       <c r="I23" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="24">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,31 +1280,31 @@
         <v>84</v>
       </c>
       <c r="G24" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" t="n">
-        <v>2083</v>
+        <v>2173</v>
       </c>
       <c r="I24" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dominic Solanke</t>
+          <t>Jean-Philippe Mateta</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" t="n">
-        <v>3204</v>
+        <v>2199</v>
       </c>
       <c r="I25" t="n">
         <v>4.7</v>
@@ -1327,19 +1327,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Julián Álvarez</t>
+          <t>Dominic Solanke</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,34 +1347,34 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" t="n">
-        <v>2643</v>
+        <v>3294</v>
       </c>
       <c r="I26" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jean-Philippe Mateta</t>
+          <t>Julián Álvarez</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G27" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" t="n">
-        <v>2131</v>
+        <v>2644</v>
       </c>
       <c r="I27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nicolas Jackson</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,34 +1417,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28" t="n">
-        <v>2622</v>
+        <v>1723</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Nicolas Jackson</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1452,34 +1452,34 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G29" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29" t="n">
-        <v>1633</v>
+        <v>2711</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carlton Morris</t>
+          <t>Yoane Wissa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,34 +1487,34 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>2679</v>
+        <v>2405</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Carlton Morris</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31" t="n">
-        <v>1522</v>
+        <v>2769</v>
       </c>
       <c r="I31" t="n">
         <v>3.8</v>
@@ -1537,19 +1537,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G32" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" t="n">
-        <v>1999</v>
+        <v>2126</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1572,19 +1572,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Yoane Wissa</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G33" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33" t="n">
-        <v>2378</v>
+        <v>2014</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
@@ -1607,19 +1607,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" t="n">
-        <v>2118</v>
+        <v>1588</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="35">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,31 +1665,31 @@
         <v>143</v>
       </c>
       <c r="G35" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35" t="n">
-        <v>2373</v>
+        <v>2463</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Taiwo Awoniyi</t>
+          <t>Callum Wilson</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36" t="n">
-        <v>1021</v>
+        <v>972</v>
       </c>
       <c r="I36" t="n">
         <v>3.5</v>
@@ -1712,19 +1712,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>941</v>
+        <v>2965</v>
       </c>
       <c r="I37" t="n">
         <v>3.4</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,13 +1770,13 @@
         <v>61</v>
       </c>
       <c r="G38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H38" t="n">
-        <v>2829</v>
+        <v>2919</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="39">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,31 +1805,31 @@
         <v>52</v>
       </c>
       <c r="G39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>2147</v>
+        <v>2237</v>
       </c>
       <c r="I39" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>William Saliba</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40" t="n">
-        <v>3240</v>
+        <v>2083</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1852,19 +1852,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>William Saliba</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G41" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H41" t="n">
-        <v>1993</v>
+        <v>3330</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,13 +1910,13 @@
         <v>54</v>
       </c>
       <c r="G42" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H42" t="n">
-        <v>2894</v>
+        <v>2984</v>
       </c>
       <c r="I42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="43">
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,31 +1945,31 @@
         <v>66</v>
       </c>
       <c r="G43" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H43" t="n">
-        <v>2164</v>
+        <v>2226</v>
       </c>
       <c r="I43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Oleksandr Zinchenko</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,34 +1977,34 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G44" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H44" t="n">
-        <v>1686</v>
+        <v>3015</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Oleksandr Zinchenko</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G45" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H45" t="n">
-        <v>2586</v>
+        <v>1686</v>
       </c>
       <c r="I45" t="n">
         <v>3.9</v>
@@ -2027,7 +2027,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G46" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H46" t="n">
-        <v>2352</v>
+        <v>2676</v>
       </c>
       <c r="I46" t="n">
         <v>3.8</v>
@@ -2062,19 +2062,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47" t="n">
-        <v>2925</v>
+        <v>2442</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="48">
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,31 +2120,31 @@
         <v>45</v>
       </c>
       <c r="G48" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48" t="n">
-        <v>2936</v>
+        <v>3026</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nathan Aké</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G49" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49" t="n">
-        <v>2020</v>
+        <v>1350</v>
       </c>
       <c r="I49" t="n">
         <v>3.5</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Nathan Aké</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50" t="n">
-        <v>2066</v>
+        <v>2020</v>
       </c>
       <c r="I50" t="n">
         <v>3.4</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51" t="n">
-        <v>2938</v>
+        <v>942</v>
       </c>
       <c r="I51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,16 +487,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45431</v>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="G2" t="n">
         <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>3020</v>
+        <v>1129</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -592,16 +592,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rodrigo Hernandez</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>45431</v>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G5" t="n">
         <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>2841</v>
+        <v>3059</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
@@ -627,16 +627,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Rodrigo Hernandez</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>45431</v>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
         <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>3059</v>
+        <v>2841</v>
       </c>
       <c r="I6" t="n">
         <v>4.7</v>
@@ -837,16 +837,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>45431</v>
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G12" t="n">
         <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>1129</v>
+        <v>3020</v>
       </c>
       <c r="I12" t="n">
         <v>5.4</v>
@@ -907,16 +907,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Michael Olise</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>45431</v>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="G14" t="n">
         <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>1182</v>
+        <v>2441</v>
       </c>
       <c r="I14" t="n">
         <v>6.6</v>
@@ -977,16 +977,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Michael Olise</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>45431</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="G16" t="n">
         <v>38</v>
       </c>
       <c r="H16" t="n">
-        <v>2441</v>
+        <v>1182</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1082,33 +1082,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>107</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>57</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>45431</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GK</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>53</v>
-      </c>
       <c r="G19" t="n">
         <v>38</v>
       </c>
       <c r="H19" t="n">
-        <v>1255</v>
+        <v>2430</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1117,16 +1117,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>45431</v>
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" t="n">
         <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>2430</v>
+        <v>1255</v>
       </c>
       <c r="I20" t="n">
         <v>3.8</v>
@@ -1187,16 +1187,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>45431</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G22" t="n">
         <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>2361</v>
+        <v>1723</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1397,16 +1397,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>45431</v>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G28" t="n">
         <v>38</v>
       </c>
       <c r="H28" t="n">
-        <v>1723</v>
+        <v>2361</v>
       </c>
       <c r="I28" t="n">
         <v>4.2</v>
@@ -1572,16 +1572,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>45431</v>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G33" t="n">
         <v>38</v>
       </c>
       <c r="H33" t="n">
-        <v>2014</v>
+        <v>1588</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
@@ -1607,16 +1607,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>45431</v>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G34" t="n">
         <v>38</v>
       </c>
       <c r="H34" t="n">
-        <v>1588</v>
+        <v>2014</v>
       </c>
       <c r="I34" t="n">
         <v>3.7</v>
@@ -1677,16 +1677,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Callum Wilson</t>
+          <t>Elijah Adebayo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>45431</v>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G36" t="n">
         <v>38</v>
       </c>
       <c r="H36" t="n">
-        <v>972</v>
+        <v>1330</v>
       </c>
       <c r="I36" t="n">
         <v>3.5</v>
@@ -1712,16 +1712,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Nathan Aké</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>45431</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
         <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>2965</v>
+        <v>2020</v>
       </c>
       <c r="I37" t="n">
         <v>3.4</v>
@@ -1782,16 +1782,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>45431</v>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="G39" t="n">
         <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>2237</v>
+        <v>2083</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1817,16 +1817,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>45431</v>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="G40" t="n">
         <v>38</v>
       </c>
       <c r="H40" t="n">
-        <v>2083</v>
+        <v>2237</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -2167,16 +2167,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nathan Aké</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>45431</v>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G50" t="n">
         <v>38</v>
       </c>
       <c r="H50" t="n">
-        <v>2020</v>
+        <v>942</v>
       </c>
       <c r="I50" t="n">
         <v>3.4</v>
@@ -2202,16 +2202,16 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jakub Kiwior</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>45431</v>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G51" t="n">
         <v>38</v>
       </c>
       <c r="H51" t="n">
-        <v>942</v>
+        <v>2965</v>
       </c>
       <c r="I51" t="n">
         <v>3.4</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +484,1756 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Martin Ødegaard</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>253</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cole Palmer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>505</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>James Maddison</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>55</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>479</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mohammed Kudus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>492</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>456</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hwang Hee-chan</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>45</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>219</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Declan Rice</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>59</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>402</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bruno Borges Fernandes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>54</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>479</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Eberechi Eze</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>47</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>540</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bryan Mbeumo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>47</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>539</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Diogo Teixeira da Silva</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>373</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jarrod Bowen</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>44</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>517</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Kevin De Bruyne</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>45</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>356</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Son Heung-min</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>450</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mohamed Salah</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>532</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jordan Pickford</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>44</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>540</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>David Raya Martin</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>88</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>540</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nick Pope</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>45</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>540</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Alphonse Areola</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>495</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Alisson Ramses Becker</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GK</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>48</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>450</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chris Wood</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>39</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>476</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ollie Watkins</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>45</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>441</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Alexander Isak</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>45</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>405</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Kai Havertz</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>540</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jean-Philippe Mateta</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>47</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>428</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Matheus Santos Carneiro Da Cunha</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>45</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>460</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nicolas Jackson</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>39</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>441</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Yoane Wissa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>49</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>290</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rodrigo Muniz Carvalho</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>40</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>274</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>João Pedro Junqueira de Jesus</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>47</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>280</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dominic Calvert-Lewin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>40</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>503</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Raúl Jiménez</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>44</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>260</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michail Antonio</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>48</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
+      </c>
+      <c r="H34" t="n">
+        <v>358</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Erling Haaland</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>67</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>65</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>539</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Danny Welbeck</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>45</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>506</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cristian Romero</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>43</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>540</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Benjamin White</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>45</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>405</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Trent Alexander-Arnold</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>39</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>492</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Joško Gvardiol</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>492</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>William Saliba</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>22</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>86</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>540</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gabriel dos Santos Magalhães</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>38</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>540</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kieran Trippier</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>43</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>208</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pedro Porro</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Spurs</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>26</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>49</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>537</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kyle Walker</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>43</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>259</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Manuel Akanji</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>40</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7</v>
+      </c>
+      <c r="H46" t="n">
+        <v>540</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Daniel Muñoz</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>39</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>530</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Fabian Schär</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>40</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" t="n">
+        <v>297</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Andrew Robertson</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>28</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>44</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>502</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rico Lewis</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>21</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>40</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>395</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Marcos Senesi</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>40</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>346</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>253</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>479</v>
+        <v>577</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -627,19 +627,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -662,19 +662,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>219</v>
+        <v>546</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -697,19 +697,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>Hwang Hee-chan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>402</v>
+        <v>252</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>54</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="I9" t="n">
         <v>4.7</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>47</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="I11" t="n">
         <v>5.1</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>44</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -919,7 +919,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
         <v>356</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
         <v>450</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>55</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="I20" t="n">
         <v>3.7</v>
@@ -1164,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1187,19 +1187,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
         <v>405</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1362,19 +1362,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>460</v>
+        <v>557</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>39</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
         <v>290</v>
@@ -1479,7 +1479,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1514,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
         <v>280</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="I32" t="n">
         <v>3.2</v>
@@ -1572,19 +1572,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -1607,19 +1607,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1677,19 +1677,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Danny Welbeck</t>
+          <t>Michail Antonio</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,34 +1697,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="I36" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
         <v>405</v>
@@ -1782,19 +1782,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1817,19 +1817,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" t="n">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1934,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
         <v>43</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H43" t="n">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>49</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="I44" t="n">
         <v>3.9</v>
@@ -2004,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="I45" t="n">
         <v>3.8</v>
@@ -2039,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="I46" t="n">
         <v>3.7</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>39</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>44</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>395</v>
+        <v>630</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45571</v>
+        <v>45586</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>346</v>
+        <v>436</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
         <v>253</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -569,7 +569,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>59</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>52</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
         <v>252</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>54</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>569</v>
+        <v>659</v>
       </c>
       <c r="I9" t="n">
         <v>4.7</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>47</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="I11" t="n">
         <v>5.1</v>
@@ -849,7 +849,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="I12" t="n">
         <v>5.2</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -919,7 +919,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
         <v>356</v>
@@ -954,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="I15" t="n">
         <v>6.1</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>55</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1059,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1082,19 +1082,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>630</v>
+        <v>528</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1129,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="I20" t="n">
         <v>3.7</v>
@@ -1152,19 +1152,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>528</v>
+        <v>720</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23" t="n">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>405</v>
+        <v>495</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
-        <v>557</v>
+        <v>640</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>39</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>521</v>
+        <v>611</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>49</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" t="n">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
         <v>287</v>
@@ -1514,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
         <v>280</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="I32" t="n">
         <v>3.2</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>49</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>44</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H35" t="n">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H36" t="n">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1712,19 +1712,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H37" t="n">
-        <v>485</v>
+        <v>603</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="38">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>405</v>
+        <v>495</v>
       </c>
       <c r="I38" t="n">
         <v>4.9</v>
@@ -1782,19 +1782,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H39" t="n">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1817,19 +1817,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H40" t="n">
-        <v>582</v>
+        <v>672</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1864,7 +1864,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1934,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H43" t="n">
         <v>278</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>627</v>
+        <v>717</v>
       </c>
       <c r="I44" t="n">
         <v>3.9</v>
@@ -2004,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
         <v>287</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>601</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>39</v>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>387</v>
+        <v>477</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2132,19 +2132,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>John Stones</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>513</v>
+        <v>237</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H50" t="n">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="I2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>662</v>
+        <v>427</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,34 +612,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>408</v>
+        <v>672</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>Hwang Hee-chan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>582</v>
+        <v>252</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>52</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -697,19 +697,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,34 +717,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>252</v>
+        <v>749</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>659</v>
+        <v>810</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,31 +790,31 @@
         <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>720</v>
+        <v>809</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>719</v>
+        <v>492</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>492</v>
+        <v>253</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -907,19 +907,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Son Heung-min</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,31 +930,31 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>356</v>
+        <v>519</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Son Heung-min</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,34 +962,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>519</v>
+        <v>784</v>
       </c>
       <c r="I15" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>694</v>
+        <v>280</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1082,19 +1082,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>528</v>
+        <v>810</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1129,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>675</v>
@@ -1152,19 +1152,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>720</v>
+        <v>528</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,13 +1277,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>482</v>
+        <v>572</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>39</v>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>49</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>314</v>
+        <v>404</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1479,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1502,19 +1502,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,34 +1522,34 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,34 +1557,34 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
-        <v>683</v>
+        <v>257</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,34 +1592,34 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Raúl Jiménez</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>426</v>
+        <v>763</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="35">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1677,19 +1677,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Michail Antonio</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>487</v>
+        <v>299</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1712,19 +1712,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>603</v>
+        <v>810</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="38">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="I38" t="n">
         <v>4.9</v>
@@ -1782,19 +1782,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>662</v>
+        <v>762</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1817,19 +1817,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
         <v>659</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>720</v>
+        <v>773</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1934,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,10 +1942,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
         <v>278</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="I44" t="n">
         <v>3.9</v>
@@ -2004,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
         <v>287</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>601</v>
+        <v>691</v>
       </c>
       <c r="I46" t="n">
         <v>3.7</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>39</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>477</v>
+        <v>567</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2132,19 +2132,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>John Stones</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>237</v>
+        <v>616</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45592</v>
+        <v>45600</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>526</v>
+        <v>665</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>356</v>
+        <v>877</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>775</v>
+        <v>865</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>427</v>
+        <v>677</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Declan Rice</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,34 +612,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hwang Hee-chan</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,34 +647,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>252</v>
+        <v>436</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Declan Rice</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>726</v>
+        <v>762</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -697,19 +697,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>33</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,34 +717,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>749</v>
+        <v>816</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,31 +790,31 @@
         <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>492</v>
+        <v>895</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Martin Ødegaard</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,34 +857,34 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>253</v>
+        <v>492</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>787</v>
+        <v>356</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>45</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>784</v>
+        <v>874</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>42</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1012,19 +1012,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,34 +1032,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Mark Travers</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1067,34 +1067,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>810</v>
+        <v>270</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="n">
-        <v>810</v>
+        <v>528</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1117,19 +1117,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alphonse Areola</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,16 +1172,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>528</v>
+        <v>900</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>49</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" t="n">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="n">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" t="n">
-        <v>572</v>
+        <v>662</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
-        <v>720</v>
+        <v>798</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>39</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" t="n">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>49</v>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
-        <v>404</v>
+        <v>475</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31" t="n">
-        <v>283</v>
+        <v>359</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>45</v>
       </c>
       <c r="G32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" t="n">
         <v>280</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" t="n">
-        <v>763</v>
+        <v>824</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" t="n">
-        <v>809</v>
+        <v>899</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>49</v>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>48</v>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37" t="n">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H38" t="n">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="I38" t="n">
         <v>4.9</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>42</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>39</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H40" t="n">
-        <v>752</v>
+        <v>842</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41" t="n">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42" t="n">
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1934,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>53</v>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43" t="n">
         <v>278</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>43</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H44" t="n">
-        <v>807</v>
+        <v>897</v>
       </c>
       <c r="I44" t="n">
         <v>3.9</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H45" t="n">
-        <v>287</v>
+        <v>377</v>
       </c>
       <c r="I45" t="n">
         <v>3.8</v>
@@ -2039,7 +2039,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H46" t="n">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="I46" t="n">
         <v>3.7</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>39</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47" t="n">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>43</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>567</v>
+        <v>657</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2144,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>51</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H51" t="n">
         <v>665</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>877</v>
+        <v>967</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>865</v>
+        <v>955</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>662</v>
+        <v>500</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -627,19 +627,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>Bernardo Veiga de Carvalho e Silva</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
-        <v>436</v>
+        <v>834</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>762</v>
+        <v>832</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -697,19 +697,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bernardo Veiga de Carvalho e Silva</t>
+          <t>Bruno Borges Fernandes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,34 +717,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>816</v>
+        <v>929</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bruno Borges Fernandes</t>
+          <t>Eberechi Eze</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eberechi Eze</t>
+          <t>Bryan Mbeumo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -787,34 +787,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>810</v>
+        <v>985</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bryan Mbeumo</t>
+          <t>Diogo Teixeira da Silva</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>895</v>
+        <v>492</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Diogo Teixeira da Silva</t>
+          <t>Martin Ødegaard</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>492</v>
+        <v>343</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,24 +916,24 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>47</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>45606</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>45</v>
-      </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>574</v>
+        <v>664</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>874</v>
+        <v>964</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1012,19 +1012,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>David Raya Martin</t>
+          <t>Jordan Pickford</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,34 +1032,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mark Travers</t>
+          <t>David Raya Martin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1067,34 +1067,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>270</v>
+        <v>990</v>
       </c>
       <c r="I18" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alisson Ramses Becker</t>
+          <t>Nick Pope</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>528</v>
+        <v>990</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1117,19 +1117,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nick Pope</t>
+          <t>Alphonse Areola</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" t="n">
-        <v>900</v>
+        <v>675</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jordan Pickford</t>
+          <t>Alisson Ramses Becker</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,16 +1172,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>796</v>
+        <v>885</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>776</v>
+        <v>840</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,13 +1277,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>675</v>
+        <v>765</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1304,7 +1304,7 @@
         <v>46</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" t="n">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>778</v>
+        <v>865</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>475</v>
+        <v>565</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>824</v>
+        <v>898</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>899</v>
+        <v>989</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1724,7 +1724,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" t="n">
-        <v>870</v>
+        <v>960</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="I38" t="n">
         <v>4.9</v>
@@ -1782,19 +1782,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1817,19 +1817,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>842</v>
+        <v>942</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" t="n">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>863</v>
+        <v>953</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1922,19 +1922,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kieran Trippier</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,31 +1945,31 @@
         <v>53</v>
       </c>
       <c r="G43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H43" t="n">
-        <v>278</v>
+        <v>987</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Kyle Walker</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,22 +1977,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44" t="n">
-        <v>897</v>
+        <v>467</v>
       </c>
       <c r="I44" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Manuel Akanji</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,34 +2012,34 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>377</v>
+        <v>781</v>
       </c>
       <c r="I45" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Manuel Akanji</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,34 +2047,34 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" t="n">
-        <v>781</v>
+        <v>904</v>
       </c>
       <c r="I46" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,34 +2082,34 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H47" t="n">
-        <v>816</v>
+        <v>747</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,16 +2117,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" t="n">
-        <v>657</v>
+        <v>755</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="49">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H49" t="n">
-        <v>706</v>
+        <v>772</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H50" t="n">
-        <v>900</v>
+        <v>772</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45606</v>
+        <v>45621</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>665</v>
+        <v>940</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         <v>45</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>967</v>
+        <v>1057</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>955</v>
+        <v>1045</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
+        <v>581</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>834</v>
+        <v>924</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
         <v>832</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>929</v>
+        <v>1019</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
         <v>810</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>985</v>
+        <v>1075</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -814,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>44</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
         <v>492</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>664</v>
+        <v>726</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>964</v>
+        <v>1054</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1024,7 +1024,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
         <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1129,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="n">
         <v>675</v>
@@ -1164,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
         <v>528</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="n">
-        <v>885</v>
+        <v>975</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>840</v>
+        <v>930</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="n">
         <v>990</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>57</v>
       </c>
       <c r="G26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="n">
-        <v>752</v>
+        <v>842</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>888</v>
+        <v>915</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="n">
-        <v>865</v>
+        <v>955</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" t="n">
-        <v>423</v>
+        <v>512</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1549,7 +1549,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="n">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="n">
-        <v>898</v>
+        <v>988</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="n">
-        <v>989</v>
+        <v>1079</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="n">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1724,7 +1724,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="n">
         <v>960</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="n">
         <v>694</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="G39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
         <v>866</v>
@@ -1829,7 +1829,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="n">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" t="n">
-        <v>839</v>
+        <v>929</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="n">
-        <v>953</v>
+        <v>1043</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" t="n">
-        <v>987</v>
+        <v>1077</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="n">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -2004,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>781</v>
+        <v>871</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>48</v>
       </c>
       <c r="G46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="n">
-        <v>904</v>
+        <v>994</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="n">
-        <v>747</v>
+        <v>837</v>
       </c>
       <c r="I47" t="n">
         <v>3.4</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>55</v>
       </c>
       <c r="G48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" t="n">
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="I48" t="n">
         <v>3.3</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>772</v>
+        <v>836</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="n">
-        <v>772</v>
+        <v>845</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>61</v>
       </c>
       <c r="G51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="n">
-        <v>940</v>
+        <v>1030</v>
       </c>
       <c r="I51" t="n">
         <v>3.2</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1057</v>
+        <v>1147</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>1045</v>
+        <v>1130</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>771</v>
+        <v>855</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,10 +615,10 @@
         <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
-        <v>924</v>
+        <v>1014</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>832</v>
+        <v>922</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1019</v>
+        <v>1084</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>810</v>
+        <v>874</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>1075</v>
+        <v>1165</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -814,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>44</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
         <v>492</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>1054</v>
+        <v>1137</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -989,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1094,7 +1094,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1129,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
         <v>675</v>
@@ -1164,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
         <v>528</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>975</v>
+        <v>1065</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>930</v>
+        <v>1013</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,13 +1277,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="n">
-        <v>990</v>
+        <v>1080</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>57</v>
       </c>
       <c r="G26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>842</v>
+        <v>932</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>915</v>
+        <v>1005</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1409,7 +1409,7 @@
         <v>78</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="n">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="n">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="n">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="n">
         <v>436</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="n">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="n">
-        <v>988</v>
+        <v>1011</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="n">
-        <v>1079</v>
+        <v>1169</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>40</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="n">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1712,19 +1712,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="n">
-        <v>960</v>
+        <v>1120</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="n">
         <v>694</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>48</v>
       </c>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
-        <v>866</v>
+        <v>938</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
         <v>1032</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="n">
-        <v>929</v>
+        <v>1019</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1899,7 +1899,7 @@
         <v>60</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="n">
-        <v>1043</v>
+        <v>1088</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="n">
-        <v>1077</v>
+        <v>1167</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="n">
-        <v>557</v>
+        <v>647</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="n">
-        <v>871</v>
+        <v>961</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>48</v>
       </c>
       <c r="G46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="n">
-        <v>994</v>
+        <v>1084</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2062,19 +2062,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fabian Schär</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,34 +2082,34 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>837</v>
+        <v>366</v>
       </c>
       <c r="I47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Fabian Schär</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,34 +2117,34 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="n">
-        <v>845</v>
+        <v>927</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="n">
-        <v>836</v>
+        <v>935</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="n">
-        <v>845</v>
+        <v>1170</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45627</v>
+        <v>45631</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="n">
-        <v>1030</v>
+        <v>917</v>
       </c>
       <c r="I51" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>1147</v>
+        <v>624</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>1130</v>
+        <v>1388</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>605</v>
+        <v>1021</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>1014</v>
+        <v>1284</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>922</v>
+        <v>1163</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>1084</v>
+        <v>1339</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>874</v>
+        <v>1079</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" t="n">
-        <v>1165</v>
+        <v>1435</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>497</v>
+        <v>725</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -872,19 +872,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>399</v>
+        <v>1417</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>816</v>
+        <v>984</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>1137</v>
+        <v>1317</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" t="n">
-        <v>1170</v>
+        <v>1350</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>1170</v>
+        <v>1440</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>1170</v>
+        <v>1350</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1129,7 +1129,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
         <v>675</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>528</v>
+        <v>618</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1187,19 +1187,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>1065</v>
+        <v>1234</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>1013</v>
+        <v>1125</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,13 +1277,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
-        <v>876</v>
+        <v>1128</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
-        <v>1080</v>
+        <v>1333</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" t="n">
-        <v>932</v>
+        <v>1171</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1362,19 +1362,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H27" t="n">
-        <v>1005</v>
+        <v>1335</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>77</v>
       </c>
       <c r="G28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H28" t="n">
-        <v>1025</v>
+        <v>1182</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H29" t="n">
-        <v>726</v>
+        <v>957</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1467,19 +1467,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30" t="n">
-        <v>351</v>
+        <v>639</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1502,19 +1502,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H31" t="n">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H32" t="n">
-        <v>436</v>
+        <v>681</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="G33" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H33" t="n">
-        <v>439</v>
+        <v>678</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>40</v>
       </c>
       <c r="G34" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" t="n">
-        <v>1011</v>
+        <v>1158</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H35" t="n">
-        <v>1169</v>
+        <v>1439</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H36" t="n">
-        <v>547</v>
+        <v>682</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" t="n">
-        <v>1120</v>
+        <v>1384</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" t="n">
         <v>694</v>
@@ -1782,19 +1782,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" t="n">
-        <v>938</v>
+        <v>1302</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1817,19 +1817,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" t="n">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H41" t="n">
-        <v>1019</v>
+        <v>1289</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>1088</v>
+        <v>1178</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H43" t="n">
-        <v>1167</v>
+        <v>1347</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G44" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H44" t="n">
-        <v>647</v>
+        <v>872</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H45" t="n">
-        <v>961</v>
+        <v>1006</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2027,19 +2027,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G46" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H46" t="n">
-        <v>1084</v>
+        <v>546</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2062,19 +2062,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H47" t="n">
-        <v>366</v>
+        <v>1354</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G48" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H48" t="n">
-        <v>927</v>
+        <v>1197</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H49" t="n">
-        <v>935</v>
+        <v>1041</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H50" t="n">
-        <v>1170</v>
+        <v>1350</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2214,7 +2214,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45631</v>
+        <v>45648</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
         <v>917</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
         <v>624</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>1388</v>
+        <v>1478</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -604,7 +604,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>1021</v>
+        <v>1078</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>1284</v>
+        <v>1374</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>1163</v>
+        <v>1195</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>1339</v>
+        <v>1429</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
         <v>1079</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>1435</v>
+        <v>1525</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>1417</v>
+        <v>1507</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>984</v>
+        <v>1065</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>1317</v>
+        <v>1403</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1094,7 +1094,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" t="n">
         <v>1350</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" t="n">
         <v>675</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>618</v>
+        <v>708</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>1234</v>
+        <v>1324</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H24" t="n">
-        <v>1128</v>
+        <v>1200</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>1333</v>
+        <v>1390</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" t="n">
-        <v>1171</v>
+        <v>1251</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" t="n">
-        <v>1335</v>
+        <v>1425</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" t="n">
-        <v>1182</v>
+        <v>1257</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29" t="n">
-        <v>957</v>
+        <v>1047</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H31" t="n">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G32" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H32" t="n">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H33" t="n">
-        <v>678</v>
+        <v>768</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H34" t="n">
-        <v>1158</v>
+        <v>1230</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1654,7 +1654,7 @@
         <v>102</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H35" t="n">
-        <v>1439</v>
+        <v>1529</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" t="n">
-        <v>682</v>
+        <v>749</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H37" t="n">
-        <v>1384</v>
+        <v>1474</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H38" t="n">
         <v>694</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H39" t="n">
-        <v>1302</v>
+        <v>1392</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H40" t="n">
-        <v>1039</v>
+        <v>1129</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H41" t="n">
-        <v>1289</v>
+        <v>1379</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H42" t="n">
-        <v>1178</v>
+        <v>1268</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" t="n">
-        <v>1347</v>
+        <v>1437</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1969,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H44" t="n">
-        <v>872</v>
+        <v>917</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H45" t="n">
-        <v>1006</v>
+        <v>1096</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H46" t="n">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H47" t="n">
         <v>1354</v>
@@ -2106,24 +2106,24 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>DEF</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
         <v>44</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>DEF</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>48</v>
-      </c>
       <c r="G48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>1197</v>
+        <v>1287</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H49" t="n">
-        <v>1041</v>
+        <v>1131</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>48</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2214,7 +2214,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45648</v>
+        <v>45653</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" t="n">
         <v>917</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>624</v>
+        <v>1597</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>1478</v>
+        <v>1568</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,33 +557,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>45653</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MID</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>74</v>
-      </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>990</v>
+        <v>1104</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Leon Bailey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>1078</v>
+        <v>748</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>1374</v>
+        <v>1464</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>1195</v>
+        <v>1281</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -709,7 +709,7 @@
         <v>81</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
-        <v>1429</v>
+        <v>1475</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>1079</v>
+        <v>1166</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>1525</v>
+        <v>1615</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>43</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>815</v>
+        <v>905</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -872,19 +872,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>1507</v>
+        <v>639</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -919,7 +919,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>1065</v>
+        <v>1145</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>1403</v>
+        <v>1493</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>808</v>
+        <v>898</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>64</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>1530</v>
+        <v>1620</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1094,7 +1094,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
         <v>1350</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>675</v>
+        <v>729</v>
       </c>
       <c r="I20" t="n">
         <v>3.7</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" t="n">
-        <v>1324</v>
+        <v>1410</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>1135</v>
+        <v>1180</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,13 +1277,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
-        <v>1200</v>
+        <v>1290</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1304,7 +1304,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="n">
-        <v>1390</v>
+        <v>1480</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
-        <v>1251</v>
+        <v>1332</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" t="n">
-        <v>1425</v>
+        <v>1515</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>45</v>
       </c>
       <c r="G28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28" t="n">
-        <v>1257</v>
+        <v>1329</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" t="n">
-        <v>1047</v>
+        <v>1137</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1479,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H31" t="n">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>44</v>
       </c>
       <c r="G33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="G34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" t="n">
-        <v>1230</v>
+        <v>1299</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
-        <v>1529</v>
+        <v>1619</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>39</v>
       </c>
       <c r="G36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" t="n">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
-        <v>1474</v>
+        <v>1564</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" t="n">
         <v>694</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" t="n">
-        <v>1392</v>
+        <v>1482</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>44</v>
       </c>
       <c r="G40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" t="n">
-        <v>1129</v>
+        <v>1219</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" t="n">
-        <v>1379</v>
+        <v>1469</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>1268</v>
+        <v>1358</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>1437</v>
+        <v>1446</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" t="n">
         <v>917</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" t="n">
-        <v>1096</v>
+        <v>1186</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2039,7 +2039,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H46" t="n">
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2085,10 +2085,10 @@
         <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47" t="n">
-        <v>1354</v>
+        <v>1444</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>1287</v>
+        <v>1377</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
         <v>46</v>
       </c>
       <c r="G49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="n">
-        <v>1131</v>
+        <v>1216</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         <v>48</v>
       </c>
       <c r="G50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" t="n">
-        <v>1440</v>
+        <v>1530</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2214,7 +2214,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45653</v>
+        <v>45658</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" t="n">
         <v>917</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>1597</v>
+        <v>729</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>1568</v>
+        <v>1658</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>1104</v>
+        <v>1160</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leon Bailey</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>748</v>
+        <v>1130</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>1464</v>
+        <v>1554</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>55</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
         <v>1475</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>1166</v>
+        <v>1251</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -790,10 +790,10 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>1615</v>
+        <v>1705</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         <v>43</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>905</v>
+        <v>992</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -872,19 +872,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>639</v>
+        <v>1656</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>1145</v>
+        <v>1208</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -965,10 +965,10 @@
         <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>1493</v>
+        <v>1583</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>898</v>
+        <v>963</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1035,10 +1035,10 @@
         <v>64</v>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
-        <v>1530</v>
+        <v>1620</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>1620</v>
+        <v>1710</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1094,7 +1094,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" t="n">
         <v>1350</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>53</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="I20" t="n">
         <v>3.7</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>1410</v>
+        <v>1485</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>1180</v>
+        <v>1270</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>1290</v>
+        <v>1380</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1304,7 +1304,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" t="n">
         <v>1480</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>1332</v>
+        <v>1422</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1374,7 +1374,7 @@
         <v>111</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1385,10 +1385,10 @@
         <v>84</v>
       </c>
       <c r="G27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" t="n">
-        <v>1515</v>
+        <v>1560</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>45</v>
       </c>
       <c r="G28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" t="n">
-        <v>1329</v>
+        <v>1364</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>1137</v>
+        <v>1211</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1479,7 +1479,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" t="n">
         <v>719</v>
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1525,10 +1525,10 @@
         <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>47</v>
       </c>
       <c r="G32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" t="n">
-        <v>795</v>
+        <v>885</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>44</v>
       </c>
       <c r="G33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H33" t="n">
-        <v>858</v>
+        <v>948</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>1299</v>
+        <v>1321</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1665,10 +1665,10 @@
         <v>42</v>
       </c>
       <c r="G35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>1619</v>
+        <v>1709</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>39</v>
       </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H36" t="n">
-        <v>839</v>
+        <v>896</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -1712,19 +1712,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tyrick Mitchell</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>1564</v>
+        <v>1620</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" t="n">
         <v>694</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1805,10 +1805,10 @@
         <v>53</v>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>1482</v>
+        <v>1572</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1829,7 +1829,7 @@
         <v>83</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>44</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H40" t="n">
-        <v>1219</v>
+        <v>1309</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" t="n">
-        <v>1469</v>
+        <v>1559</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H42" t="n">
-        <v>1358</v>
+        <v>1448</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
         <v>43</v>
       </c>
       <c r="G43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>1446</v>
+        <v>1536</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1969,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1980,10 +1980,10 @@
         <v>54</v>
       </c>
       <c r="G44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" t="n">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>1186</v>
+        <v>1276</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2027,19 +2027,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" t="n">
-        <v>726</v>
+        <v>1534</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2062,19 +2062,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>1444</v>
+        <v>816</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2109,7 +2109,7 @@
         <v>55</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2120,10 +2120,10 @@
         <v>53</v>
       </c>
       <c r="G48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>1377</v>
+        <v>1467</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2132,19 +2132,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H49" t="n">
-        <v>1216</v>
+        <v>917</v>
       </c>
       <c r="I49" t="n">
         <v>3.3</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Cristian Romero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H50" t="n">
-        <v>1530</v>
+        <v>974</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45658</v>
+        <v>45663</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>917</v>
+        <v>1289</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>1658</v>
+        <v>1748</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>1160</v>
+        <v>1231</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>1130</v>
+        <v>1158</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
-        <v>1554</v>
+        <v>1644</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>1293</v>
+        <v>1383</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1475</v>
+        <v>1565</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>1251</v>
+        <v>1337</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>1705</v>
+        <v>1795</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -884,7 +884,7 @@
         <v>90</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
         <v>1656</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>1208</v>
+        <v>1236</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="n">
-        <v>1583</v>
+        <v>1673</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" t="n">
-        <v>963</v>
+        <v>1053</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>1620</v>
+        <v>1710</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1094,7 +1094,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" t="n">
         <v>1350</v>
@@ -1129,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" t="n">
-        <v>819</v>
+        <v>909</v>
       </c>
       <c r="I20" t="n">
         <v>3.7</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" t="n">
-        <v>888</v>
+        <v>978</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1187,19 +1187,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" t="n">
-        <v>1485</v>
+        <v>1560</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>1270</v>
+        <v>1360</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1280,10 +1280,10 @@
         <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="n">
-        <v>1380</v>
+        <v>1465</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" t="n">
         <v>1480</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>1422</v>
+        <v>1512</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1362,19 +1362,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" t="n">
-        <v>1560</v>
+        <v>1572</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" t="n">
-        <v>1364</v>
+        <v>1444</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>1211</v>
+        <v>1301</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1467,19 +1467,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1490,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
-        <v>719</v>
+        <v>971</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1502,33 +1502,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FWD</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
         <v>43</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>52</v>
-      </c>
       <c r="G31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31" t="n">
-        <v>562</v>
+        <v>749</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1537,19 +1537,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Rodrigo Muniz Carvalho</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>885</v>
+        <v>589</v>
       </c>
       <c r="I32" t="n">
         <v>3.7</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         <v>44</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33" t="n">
-        <v>948</v>
+        <v>1038</v>
       </c>
       <c r="I33" t="n">
         <v>3.4</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H34" t="n">
-        <v>1321</v>
+        <v>1379</v>
       </c>
       <c r="I34" t="n">
         <v>3.2</v>
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H35" t="n">
-        <v>1709</v>
+        <v>1792</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1677,19 +1677,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cody Gakpo</t>
+          <t>Gabriel Fernando de Jesus</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,34 +1697,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H36" t="n">
-        <v>896</v>
+        <v>600</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Rico Lewis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
         <v>48</v>
       </c>
       <c r="G37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H37" t="n">
-        <v>1620</v>
+        <v>1382</v>
       </c>
       <c r="I37" t="n">
         <v>3.2</v>
@@ -1759,7 +1759,7 @@
         <v>27</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
         <v>694</v>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" t="n">
-        <v>1572</v>
+        <v>1662</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H40" t="n">
-        <v>1309</v>
+        <v>1394</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" t="n">
-        <v>1559</v>
+        <v>1649</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H42" t="n">
-        <v>1448</v>
+        <v>1538</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1931,10 +1931,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" t="n">
-        <v>1536</v>
+        <v>1626</v>
       </c>
       <c r="I43" t="n">
         <v>3.9</v>
@@ -1969,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44" t="n">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="I44" t="n">
         <v>3.8</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>1276</v>
+        <v>1366</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2036,10 +2036,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46" t="n">
-        <v>1534</v>
+        <v>1624</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>816</v>
+        <v>906</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2109,7 +2109,7 @@
         <v>55</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" t="n">
         <v>1467</v>
@@ -2144,7 +2144,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49" t="n">
         <v>917</v>
@@ -2167,19 +2167,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cristian Romero</t>
+          <t>Virgil van Dijk</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
-        <v>974</v>
+        <v>1710</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45663</v>
+        <v>45673</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H51" t="n">
-        <v>1289</v>
+        <v>1379</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>

--- a/use_data.xlsx
+++ b/use_data.xlsx
@@ -487,19 +487,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kevin De Bruyne</t>
+          <t>Jarrod Bowen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>819</v>
+        <v>2884</v>
       </c>
       <c r="I2" t="n">
         <v>5.4</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
         <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>1748</v>
+        <v>3103</v>
       </c>
       <c r="I3" t="n">
         <v>7.2</v>
@@ -557,19 +557,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mohammed Kudus</t>
+          <t>James Maddison</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H4" t="n">
-        <v>1231</v>
+        <v>1799</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
@@ -592,19 +592,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>James Maddison</t>
+          <t>Mohammed Kudus</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H5" t="n">
-        <v>1158</v>
+        <v>2572</v>
       </c>
       <c r="I5" t="n">
         <v>4.2</v>
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>1644</v>
+        <v>2577</v>
       </c>
       <c r="I6" t="n">
         <v>4.3</v>
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -685,10 +685,10 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>1383</v>
+        <v>2733</v>
       </c>
       <c r="I7" t="n">
         <v>4.3</v>
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>1565</v>
+        <v>2927</v>
       </c>
       <c r="I8" t="n">
         <v>4.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>1337</v>
+        <v>2527</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>1795</v>
+        <v>3325</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>598</v>
+        <v>1154</v>
       </c>
       <c r="I11" t="n">
         <v>5.2</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -860,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>1018</v>
+        <v>2306</v>
       </c>
       <c r="I12" t="n">
         <v>5.3</v>
@@ -872,19 +872,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jarrod Bowen</t>
+          <t>Kevin De Bruyne</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H13" t="n">
-        <v>1656</v>
+        <v>1689</v>
       </c>
       <c r="I13" t="n">
         <v>5.4</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>1236</v>
+        <v>2106</v>
       </c>
       <c r="I14" t="n">
         <v>6.1</v>
@@ -942,19 +942,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mohamed Salah</t>
+          <t>Phil Foden</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H15" t="n">
-        <v>1673</v>
+        <v>1763</v>
       </c>
       <c r="I15" t="n">
         <v>6.6</v>
@@ -977,19 +977,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Phil Foden</t>
+          <t>Mohamed Salah</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H16" t="n">
-        <v>1053</v>
+        <v>3284</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H17" t="n">
-        <v>1710</v>
+        <v>3330</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         <v>88</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H18" t="n">
-        <v>1800</v>
+        <v>3330</v>
       </c>
       <c r="I18" t="n">
         <v>4.2</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H19" t="n">
-        <v>1350</v>
+        <v>2430</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>909</v>
+        <v>2259</v>
       </c>
       <c r="I20" t="n">
         <v>3.7</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H21" t="n">
-        <v>978</v>
+        <v>2418</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
@@ -1187,19 +1187,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Matheus Santos Carneiro Da Cunha</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Nott'm Forest</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>1560</v>
+        <v>2868</v>
       </c>
       <c r="I22" t="n">
         <v>4.2</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
         <v>45</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H23" t="n">
-        <v>1360</v>
+        <v>2503</v>
       </c>
       <c r="I23" t="n">
         <v>6.2</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1277,13 +1277,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H24" t="n">
-        <v>1465</v>
+        <v>2668</v>
       </c>
       <c r="I24" t="n">
         <v>5.7</v>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1315,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="G25" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H25" t="n">
-        <v>1480</v>
+        <v>1853</v>
       </c>
       <c r="I25" t="n">
         <v>4.9</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H26" t="n">
-        <v>1512</v>
+        <v>2581</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -1362,19 +1362,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Matheus Santos Carneiro Da Cunha</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nott'm Forest</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="G27" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H27" t="n">
-        <v>1572</v>
+        <v>2506</v>
       </c>
       <c r="I27" t="n">
         <v>4.2</v>
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G28" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H28" t="n">
-        <v>1444</v>
+        <v>2220</v>
       </c>
       <c r="I28" t="n">
         <v>4.1</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H29" t="n">
-        <v>1301</v>
+        <v>2831</v>
       </c>
       <c r="I29" t="n">
         <v>3.9</v>
@@ -1467,19 +1467,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rasmus Højlund</t>
+          <t>Darwin Núñez Ribeiro</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="I30" t="n">
         <v>3.7</v>
@@ -1502,19 +1502,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Darwin Núñez Ribeiro</t>
+          <t>Rasmus Højlund</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H31" t="n">
-        <v>749</v>
+        <v>1918</v>
       </c>
       <c r="I31" t="n">
         <v>3.7</v>
@@ -1537,19 +1537,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Rodrigo Muniz Carvalho</t>
+          <t>João Pedro Junqueira de Jesus</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1557,34 +1557,34 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H32" t="n">
-        <v>589</v>
+        <v>1946</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>João Pedro Junqueira de Jesus</t>
+          <t>Dominic Calvert-Lewin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1595,31 +1595,31 @@
         <v>44</v>
       </c>
       <c r="G33" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H33" t="n">
-        <v>1038</v>
+        <v>1600</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dominic Calvert-Lewin</t>
+          <t>Cody Gakpo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1627,16 +1627,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H34" t="n">
-        <v>1379</v>
+        <v>1831</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G35" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H35" t="n">
-        <v>1792</v>
+        <v>2652</v>
       </c>
       <c r="I35" t="n">
         <v>7</v>
@@ -1677,19 +1677,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gabriel Fernando de Jesus</t>
+          <t>Raúl Jiménez</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1697,34 +1697,34 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G36" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H36" t="n">
-        <v>600</v>
+        <v>2396</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rico Lewis</t>
+          <t>Andrew Robertson</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1735,13 +1735,13 @@
         <v>48</v>
       </c>
       <c r="G37" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H37" t="n">
-        <v>1382</v>
+        <v>2395</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="38">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1770,10 +1770,10 @@
         <v>45</v>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H38" t="n">
-        <v>694</v>
+        <v>1105</v>
       </c>
       <c r="I38" t="n">
         <v>4.9</v>
@@ -1782,19 +1782,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Joško Gvardiol</t>
+          <t>Trent Alexander-Arnold</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G39" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H39" t="n">
-        <v>1662</v>
+        <v>2317</v>
       </c>
       <c r="I39" t="n">
         <v>4.4</v>
@@ -1817,19 +1817,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Trent Alexander-Arnold</t>
+          <t>Joško Gvardiol</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H40" t="n">
-        <v>1394</v>
+        <v>3188</v>
       </c>
       <c r="I40" t="n">
         <v>4.4</v>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         <v>86</v>
       </c>
       <c r="G41" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H41" t="n">
-        <v>1649</v>
+        <v>3039</v>
       </c>
       <c r="I41" t="n">
         <v>4.3</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="G42" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H42" t="n">
-        <v>1538</v>
+        <v>2363</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
@@ -1922,19 +1922,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pedro Porro</t>
+          <t>Kieran Trippier</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Spurs</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1945,31 +1945,31 @@
         <v>45</v>
       </c>
       <c r="G43" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H43" t="n">
-        <v>1626</v>
+        <v>1272</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kyle Walker</t>
+          <t>Pedro Porro</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Spurs</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1977,16 +1977,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G44" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H44" t="n">
-        <v>966</v>
+        <v>2516</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="45">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2012,13 +2012,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G45" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H45" t="n">
-        <v>1366</v>
+        <v>1922</v>
       </c>
       <c r="I45" t="n">
         <v>3.7</v>
@@ -2027,19 +2027,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Daniel Muñoz</t>
+          <t>Jarrad Branthwaite</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2047,13 +2047,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H46" t="n">
-        <v>1624</v>
+        <v>2509</v>
       </c>
       <c r="I46" t="n">
         <v>3.5</v>
@@ -2062,19 +2062,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jarrad Branthwaite</t>
+          <t>Daniel Muñoz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G47" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H47" t="n">
-        <v>906</v>
+        <v>3139</v>
       </c>
       <c r="I47" t="n">
         <v>3.5</v>
@@ -2106,10 +2106,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G48" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H48" t="n">
-        <v>1467</v>
+        <v>2845</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2132,19 +2132,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Marcos Senesi</t>
+          <t>Jakub Kiwior</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G49" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H49" t="n">
-        <v>917</v>
+        <v>1027</v>
       </c>
       <c r="I49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Virgil van Dijk</t>
+          <t>Tyrick Mitchell</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H50" t="n">
-        <v>1710</v>
+        <v>3000</v>
       </c>
       <c r="I50" t="n">
         <v>3.2</v>
@@ -2202,19 +2202,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Andrew Robertson</t>
+          <t>Marcos Senesi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45673</v>
+        <v>45802</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G51" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H51" t="n">
-        <v>1379</v>
+        <v>1026</v>
       </c>
       <c r="I51" t="n">
         <v>3.3</v>
